--- a/metadata/layers_metadata/v2.2/layers_metadata_v2.2.xlsx
+++ b/metadata/layers_metadata/v2.2/layers_metadata_v2.2.xlsx
@@ -2808,9 +2808,6 @@
     <t>GEBCO Bathymetric Compilation Group. The GEBCO_2022 Grid - a continuous terrain model of the global oceans and land [dataset]. 2022 [accessed 2022 Sep 05] NERC EDS British Oceanographic Data Centre NOC. Available from: doi 10.5285/e0f0bb80- ab44-2739-e053-6c86abc0289c; Jenkins C. Hard/Soft Substrates Compilation of the WIO Region, wio_coda_idw3d [dataset]. 2023 [accessed 2023 Mar 13]. dbSEABED, affiliate INSTAAR, Univ. Colorado Boulder; Sch. Biol. Sci., Univ. Adelaide; Principal: Floor of the Ocean LLC, Benthic Data Research LLC. Available from: contact jenkinsc0@gmail.com</t>
   </si>
   <si>
-    <t>GEBCO Bathymetric Compilation Group. The GEBCO_2022 Grid - a continuous terrain model of the global oceans and land [dataset]. 2022 [accessed 2022 Sep 05] NERC EDS British Oceanographic Data Centre NOC. Available from: doi 10.5285/e0f0bb80- ab44-2739-e053-6c86abc0289c; Tong R et al. Global distribution of cold-water coral species [dataset]. 2023 [accessed 2023 Apr 11]. In press. Available from: contact tongruiju123@163.com; European Union-Copernicus Marine Service. Global Ocean Physics Reanalysis</t>
-  </si>
-  <si>
     <t>Harrisa P T, Macmillan-Lawler M, Rupp J, Baker E K. Global Seafloor Geomorphic Features Map [dataset]. 2014 [accessed 2021 Oct 12]. Available from: https://www.bluehabitats.org/?page_id=58</t>
   </si>
   <si>
@@ -2997,6 +2994,9 @@
   </si>
   <si>
     <t>cc_sealev_sea_level_rise_v01.0.tif_sourcesym.txt</t>
+  </si>
+  <si>
+    <t>Tong R, Davies AJ, Purser A, Liu X, Liu F (2022) Global distribution of the cold-water coral Lophelia pertusa. IOP Conference Series: Earth and Environmental Science 1004 doi 10.1088/1755-1315/1004/1/012010; Tong R, Davies AJ, Yesson C, Yu J, Luo Y, Zhang L, Burgos JM (2023) Environmental drivers and the distribution of cold-water corals in the global ocean. Frontiers in Marine Science 10 doi 10.3389/fmars.2023.1217851; GEBCO Bathymetric Compilation Group. The GEBCO_2022 Grid - a continuous terrain model of the global oceans and land [dataset]. 2022 [accessed 2022 Sep 05] NERC EDS British Oceanographic Data Centre NOC. Available from: doi 10.5285/e0f0bb80- ab44-2739-e053-6c86abc0289c; European Union-Copernicus Marine Service. Global Ocean Physics Reanalysis</t>
   </si>
 </sst>
 </file>
@@ -3393,31 +3393,31 @@
   </sheetPr>
   <dimension ref="A1:T1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H25" workbookViewId="0">
-      <selection activeCell="O59" sqref="O59"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" style="15" customWidth="1"/>
+    <col min="1" max="2" width="11.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" style="15" customWidth="1"/>
     <col min="6" max="6" width="16" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="19"/>
-    <col min="9" max="9" width="48.140625" style="19" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="19"/>
+    <col min="9" max="9" width="48.109375" style="19" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" style="19" customWidth="1"/>
     <col min="11" max="11" width="24" style="25" customWidth="1"/>
     <col min="12" max="12" width="23" style="25" customWidth="1"/>
-    <col min="13" max="13" width="26.140625" style="25" customWidth="1"/>
-    <col min="14" max="17" width="12.5703125" style="25"/>
-    <col min="18" max="18" width="12.5703125" style="15"/>
-    <col min="19" max="19" width="12.5703125" style="11"/>
-    <col min="20" max="16384" width="12.5703125" style="15"/>
+    <col min="13" max="13" width="26.109375" style="25" customWidth="1"/>
+    <col min="14" max="17" width="12.5546875" style="25"/>
+    <col min="18" max="18" width="12.5546875" style="15"/>
+    <col min="19" max="19" width="12.5546875" style="11"/>
+    <col min="20" max="16384" width="12.5546875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3473,13 +3473,13 @@
         <v>706</v>
       </c>
       <c r="S1" s="9" t="s">
+        <v>958</v>
+      </c>
+      <c r="T1" s="12" t="s">
         <v>959</v>
       </c>
-      <c r="T1" s="12" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>510</v>
       </c>
       <c r="L5" s="24" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="M5" s="23" t="s">
         <v>598</v>
@@ -3717,7 +3717,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -3837,7 +3837,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -3894,10 +3894,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/data/reg/eco/dbh_coral/v02/proc_log/eco_dbh_coral_reg_s01_v02.1.Rmd</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -3954,10 +3954,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/data/reg/env/ridges/v01/proc_log/env_ridges_reg_s01_v01.Rmd</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -4014,10 +4014,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/data/reg/eco/seamounts/v02/proc_log/eco_hab_reg_seamounts_s01_v02.Rmd</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -4077,7 +4077,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -4194,10 +4194,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/data/reg/eco/dbh_vents/v01/proc_log/eco_dbh_vents_reg_s01_v01.0.Rmd</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -4254,10 +4254,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/data/reg/eco/bh_veg_macroa/v02/proc_log/eco_bh_veg_macroa_reg_algae_s01_v02.0.Rmd</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -4314,10 +4314,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/data/reg/eco/bh_veg_macroa/v01/proc_log/eco_bh_veg_macroa_reg_kelp_s01_v01.2.Rmd</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -4374,10 +4374,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/data/reg/eco/ch_mudflat/v02/proc_log/eco_ch_mudflat_reg_s01_v02.2.Rmd</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -4434,10 +4434,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/data/reg/eco/bird_peng/penguin_sdm/v01/proc_log/eco_bird_peng_reg_penguin_sdm_s01_v01.Rmd</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -4492,10 +4492,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/data/reg/eco/salt_marsh/v01/proc_log/salt_marsh_model.py, eco_salt_marsh_reg_s02_v01.1_temptrop_limit.Rmd</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -4552,10 +4552,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/data/reg/eco/bh_veg_seagr/v02/proc_log/eco_bh_veg_seagr_reg_s01_v02.1.Rmd</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -4612,10 +4612,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/data/reg/eco/bh_hardsoft/v02/proc_log/eco_bh_hardsoft_reg_s01_v02.0.Rmd</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -4673,10 +4673,10 @@
 /proc_log/eco_bh_hardsoft_reg_s01_v02.0.Rmd</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -4733,10 +4733,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/data/reg/eco/bh_hardsoft/v02/proc_log/eco_bh_hardsoft_reg_s01_v02.0.Rmd</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -4793,10 +4793,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/data/reg/eco/bh_hardsoft/v02/proc_log/eco_bh_hardsoft_reg_s01_v02.0.Rmd</v>
       </c>
       <c r="S23" s="5" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -4853,10 +4853,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/data/reg/eco/ch_shore/v01/proc_log/eco_ch_shore_reg_s01_v01.0.R</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -4913,10 +4913,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/data/reg/eco/bh_veg_macroa/v02/proc_log/eco_bh_veg_macroa_reg_algae_s01_v02.0.Rmd</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -4973,10 +4973,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/data/reg/eco/bh_coral/v01/proc_log/eco_bh_coral_reg_s01_v01.1.Rmd</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -5033,10 +5033,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/data/reg/eco/ch_mangrove/v01/proc_log/eco_ch_mangrove_reg_s01_v01.1.Rmd</v>
       </c>
       <c r="S27" s="5" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -5072,7 +5072,7 @@
       <c r="R28" s="6"/>
       <c r="S28" s="5"/>
     </row>
-    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -5129,10 +5129,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/data/reg/eco/ch_mudflat/v02/proc_log/eco_ch_mudflat_reg_s01_v02.2.Rmd</v>
       </c>
       <c r="S29" s="5" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -5187,10 +5187,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/data/reg/eco/salt_marsh/v01/proc_log/salt_marsh_model.py, eco_salt_marsh_reg_s02_v01.1_temptrop_limit.Rmd</v>
       </c>
       <c r="S30" s="5" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -5247,10 +5247,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/data/reg/eco/bh_veg_seagr/v02/proc_log/eco_bh_veg_seagr_reg_s01_v02.1.Rmd</v>
       </c>
       <c r="S31" s="5" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -5307,10 +5307,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/data/reg/eco/bh_hardsoft/v02/proc_log/eco_bh_hardsoft_reg_s01_v02.0.Rmd</v>
       </c>
       <c r="S32" s="5" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -5367,10 +5367,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/data/reg/eco/bh_hardsoft/v02/proc_log/eco_bh_hardsoft_reg_s01_v02.0.Rmd</v>
       </c>
       <c r="S33" s="5" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -5427,10 +5427,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/data/reg/eco/bh_hardsoft/v02/proc_log/eco_bh_hardsoft_reg_s01_v02.0.Rmd</v>
       </c>
       <c r="S34" s="5" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -5487,10 +5487,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/data/reg/eco/bh_hardsoft/v02/proc_log/eco_bh_hardsoft_reg_s01_v02.0.Rmd</v>
       </c>
       <c r="S35" s="5" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -5547,10 +5547,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/data/reg/eco/ch_shore/v01/proc_log/eco_ch_shore_reg_s01_v01.0.R</v>
       </c>
       <c r="S36" s="5" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -5607,10 +5607,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/data/reg/eco/bird_sea/seabirds_sdm/v01/proc_log/eco_bird_sea_reg_seabirds_sdm_s02_v01.1.Rmd</v>
       </c>
       <c r="S37" s="5" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -5667,10 +5667,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/data/reg/eco/bfish_coral/coralfish_sdm/v01/proc_log/eco_bfish_coral_reg_coralfish_sdm_s01_v01.Rmd</v>
       </c>
       <c r="S38" s="5" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -5725,10 +5725,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/proc_log/eco_inv_reg_inv_epifauna_sdm_s01_v01.Rmd</v>
       </c>
       <c r="S39" s="5" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -5785,10 +5785,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/data/reg/eco/bfish_demersal/demfish_sdm/v01/proc_log/eco_bfish_demersal_reg_demfish_sdm_s01_v01.Rmd</v>
       </c>
       <c r="S40" s="5" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -5845,10 +5845,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/data/reg/eco/bfish_pelagic/pelfish_sdm/v01/proc_log/eco_bfish_pelagic_reg_pelfish_sdm_s02_v01.1.Rmd</v>
       </c>
       <c r="S41" s="5" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -5905,10 +5905,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/data/reg/eco/cfish_rays/rays_sdm/v01/proc_log/eco_cfish_rays_reg_rays_sdm_s01_v01.Rmd</v>
       </c>
       <c r="S42" s="5" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -5965,10 +5965,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/data/reg/eco/cfish_shark/shark_sdm/v01/proc_log/eco_cfish_shark_reg_shark_sdm_s02_v01.Rmd</v>
       </c>
       <c r="S43" s="5" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -6025,10 +6025,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/data/reg/eco/bfish_tuna/tuna_sdm/v01/proc_log/eco_bfish_tuna_reg_tuna_sdm_s01_v01.Rmd</v>
       </c>
       <c r="S44" s="5" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -6085,10 +6085,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/data/reg/eco/cfish_whalesh/whaleshark_sdm/v01/proc_log/eco_cfish_whalesh_reg_whaleshark_sdm_s03_v01.2.Rmd</v>
       </c>
       <c r="S45" s="5" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -6143,10 +6143,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/proc_log/eco_inv_reg_inv_infauna_sdm_s01_v01.Rmd</v>
       </c>
       <c r="S46" s="5" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -6201,10 +6201,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/proc_log/eco_inv_reg_inv_epifauna_sdm_s01_v01.Rmd</v>
       </c>
       <c r="S47" s="5" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -6259,10 +6259,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/proc_log/eco_mam_reg_whales_sdm_s03_v01.2.Rmd</v>
       </c>
       <c r="S48" s="5" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -6319,10 +6319,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/data/reg/eco/mam_dolph/dolphin_sdm/v01/proc_log/eco_mam_dolph_reg_dolphin_sdm_s02_v01.1.Rmd</v>
       </c>
       <c r="S49" s="5" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -6377,10 +6377,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/proc_log/eco_mam_scow_reg_scow_sdm_s01_v01.Rmd</v>
       </c>
       <c r="S50" s="5" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -6437,10 +6437,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/data/reg/eco/mam_seals/seals_sdm/v01/proc_log/eco_mam_seals_reg_seals_sdm_s01_v01.Rmd</v>
       </c>
       <c r="S51" s="5" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -6497,10 +6497,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/data/reg/eco/mam/sperm_whale_sdm/v01/proc_log/eco_mam_reg_sperm_whale_sdm_s02_v01.1.Rmd</v>
       </c>
       <c r="S52" s="5" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -6557,10 +6557,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/data/reg/eco/rept_turtle/turtle_sdm/v01/proc_log/eco_rept_turtle_reg_turtle_sdm_s02_v01.1.Rmd</v>
       </c>
       <c r="S53" s="5" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>1</v>
       </c>
@@ -6617,10 +6617,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/data/reg/pres/algea_farming/v02/proc_log/aqualculture.py</v>
       </c>
       <c r="S54" s="5" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>2</v>
       </c>
@@ -6677,10 +6677,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/data/reg/pres/aquaculture_mariculture/v02/proc_log/mariculture_aquaculture_v2.py</v>
       </c>
       <c r="S55" s="5" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>3</v>
       </c>
@@ -6716,7 +6716,7 @@
       <c r="R56" s="6"/>
       <c r="S56" s="5"/>
     </row>
-    <row r="57" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>4</v>
       </c>
@@ -6742,22 +6742,22 @@
         <v>100</v>
       </c>
       <c r="I57" s="17" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J57" s="20">
         <v>45436</v>
       </c>
       <c r="K57" s="23" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="L57" s="23" t="s">
         <v>637</v>
       </c>
       <c r="M57" s="23" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="N57" s="25" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="O57" s="23" t="s">
         <v>794</v>
@@ -6773,10 +6773,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/data/reg/pres/cc_oacid/ocean_acidification/v01/proc_log/pres_cc_oacid_reg_ocean_acidification_s01_v01.Rmd</v>
       </c>
       <c r="S57" s="5" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>5</v>
       </c>
@@ -6802,41 +6802,41 @@
         <v>100</v>
       </c>
       <c r="I58" s="17" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="J58" s="20">
         <v>45436</v>
       </c>
       <c r="K58" s="23" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="L58" s="23" t="s">
         <v>634</v>
       </c>
       <c r="M58" s="23" t="s">
+        <v>964</v>
+      </c>
+      <c r="N58" s="25" t="s">
         <v>965</v>
       </c>
-      <c r="N58" s="25" t="s">
-        <v>966</v>
-      </c>
       <c r="O58" s="25" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="P58" s="27" t="s">
+        <v>967</v>
+      </c>
+      <c r="Q58" s="29" t="s">
         <v>968</v>
-      </c>
-      <c r="Q58" s="29" t="s">
-        <v>969</v>
       </c>
       <c r="R58" s="6" t="str">
         <f t="shared" si="2"/>
         <v>https://github.com/WIOSymphony/wiosym/blob/main/data/reg/pres/cc_sealev/sea_level_rise/v01/proc_log/pres_cc_sealev_reg_sea_level_rise_s01_v01.Rmd</v>
       </c>
       <c r="S58" s="5" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>6</v>
       </c>
@@ -6893,10 +6893,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/data/reg/ocean/v02/proc_log/storm_surge_v1.0.ipynb</v>
       </c>
       <c r="S59" s="5" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>7</v>
       </c>
@@ -6922,22 +6922,22 @@
         <v>100</v>
       </c>
       <c r="I60" s="17" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="J60" s="20">
         <v>45436</v>
       </c>
       <c r="K60" s="23" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="L60" s="23" t="s">
         <v>637</v>
       </c>
       <c r="M60" s="23" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="N60" s="25" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="O60" s="23" t="s">
         <v>793</v>
@@ -6953,10 +6953,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/data/reg/pres/cc_temp/temp_rise_mhw/v01/proc_log/pres_cc_temp_reg_temp_rise_mhw_s01_v01.Rmd</v>
       </c>
       <c r="S60" s="5" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>8</v>
       </c>
@@ -7013,10 +7013,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/data/reg/pres/dreadging/v02/proc_log/dreadging.py</v>
       </c>
       <c r="S61" s="5" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>9</v>
       </c>
@@ -7073,10 +7073,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/data/reg/pres/dumping/v02/proc_log/dumping.py;dumping2.py</v>
       </c>
       <c r="S62" s="5" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>10</v>
       </c>
@@ -7133,10 +7133,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/data/reg/pres/nrg_water/v02/proc_log/water_movement_change.py;water_movement_change2.py</v>
       </c>
       <c r="S63" s="5" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>11</v>
       </c>
@@ -7191,10 +7191,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/data/reg/pres/lb_industry/v01/proc_log/</v>
       </c>
       <c r="S64" s="5" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>12</v>
       </c>
@@ -7251,10 +7251,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/data/reg/pres/land_reclaimation/v02/proc_log/land_rec.py; land_rec2.py</v>
       </c>
       <c r="S65" s="5" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>13</v>
       </c>
@@ -7311,10 +7311,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/data/reg/pres/nrg_light/v01/proc_log/nightlight_reprocessing_temp.Rmd</v>
       </c>
       <c r="S66" s="5" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>14</v>
       </c>
@@ -7371,10 +7371,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/data/reg/pres/piers_docks/v01/proc_log/piers_docks.py; piers_docks_v2.py</v>
       </c>
       <c r="S67" s="5" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>15</v>
       </c>
@@ -7431,10 +7431,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/data/reg/pres/ports/v02/proc_log/ports_model.py; ports_model_v2.py</v>
       </c>
       <c r="S68" s="5" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>16</v>
       </c>
@@ -7491,10 +7491,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/data/reg/pres/nutrient_input/v02/proc_log/nutrient_input_model.py; nutrient_inputv2_aug2022.py</v>
       </c>
       <c r="S69" s="5" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>17</v>
       </c>
@@ -7545,10 +7545,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/proc_log/</v>
       </c>
       <c r="S70" s="5" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>18</v>
       </c>
@@ -7603,10 +7603,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/proc_log/act_fishing_com_glo_gfw_effort_s02_v01.Rmd</v>
       </c>
       <c r="S71" s="5" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>19</v>
       </c>
@@ -7661,10 +7661,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/proc_log/act_fishing_com_glo_gfw_effort_s02_v01.Rmd</v>
       </c>
       <c r="S72" s="5" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>20</v>
       </c>
@@ -7719,10 +7719,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/proc_log/act_fishing_com_glo_gfw_effort_s02_v01.Rmd</v>
       </c>
       <c r="S73" s="5" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>21</v>
       </c>
@@ -7777,10 +7777,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/proc_log/act_fishing_com_glo_gfw_effort_s02_v01.Rmd</v>
       </c>
       <c r="S74" s="5" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>22</v>
       </c>
@@ -7837,10 +7837,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/data/reg/act/fishing/v01/proc_log/act_fishing_reg_other_fishing_s01_v01.1.Rmd</v>
       </c>
       <c r="S75" s="5" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>23</v>
       </c>
@@ -7876,7 +7876,7 @@
       <c r="R76" s="6"/>
       <c r="S76" s="5"/>
     </row>
-    <row r="77" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>24</v>
       </c>
@@ -7931,10 +7931,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/proc_log/act_fishing_com_glo_gfw_effort_s02_v01.Rmd</v>
       </c>
       <c r="S77" s="10" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>25</v>
       </c>
@@ -7970,7 +7970,7 @@
       <c r="R78" s="6"/>
       <c r="S78" s="5"/>
     </row>
-    <row r="79" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>26</v>
       </c>
@@ -8006,7 +8006,7 @@
       <c r="R79" s="6"/>
       <c r="S79" s="5"/>
     </row>
-    <row r="80" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>27</v>
       </c>
@@ -8061,10 +8061,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/proc_log/act_fishing_com_glo_gfw_effort_s02_v01.Rmd</v>
       </c>
       <c r="S80" s="5" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>28</v>
       </c>
@@ -8121,10 +8121,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/data/reg/act/fishing/ghost_fishing/v01/proc_log/act_fishing_reg_ghost_fishing_s01_v01.Rmd</v>
       </c>
       <c r="S81" s="5" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>29</v>
       </c>
@@ -8181,10 +8181,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/data/reg/pres/pol_plastic/v02/proc_log/pres_pol_plastic_reg_s01_v02.0.Rmd</v>
       </c>
       <c r="S82" s="5" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>30</v>
       </c>
@@ -8220,7 +8220,7 @@
       <c r="R83" s="6"/>
       <c r="S83" s="5"/>
     </row>
-    <row r="84" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>31</v>
       </c>
@@ -8256,7 +8256,7 @@
       <c r="R84" s="6"/>
       <c r="S84" s="5"/>
     </row>
-    <row r="85" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>32</v>
       </c>
@@ -8292,7 +8292,7 @@
       <c r="R85" s="6"/>
       <c r="S85" s="5"/>
     </row>
-    <row r="86" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>33</v>
       </c>
@@ -8349,10 +8349,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/data/reg/act/nrg_oilgas/oilgas_leakage/v01/proc_log/act_nrg_oilgas_reg_oilgas_leakage_s01_v01.Rmd</v>
       </c>
       <c r="S86" s="5" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>34</v>
       </c>
@@ -8388,7 +8388,7 @@
       <c r="R87" s="6"/>
       <c r="S87" s="5"/>
     </row>
-    <row r="88" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>35</v>
       </c>
@@ -8445,10 +8445,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/data/reg/act/inf_cables/v01/proc_log/underwater_cable.py</v>
       </c>
       <c r="S88" s="5" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>36</v>
       </c>
@@ -8505,10 +8505,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/data/reg/pres/air_pol/v01/proc_log/air_pol_v1.py;air_pol_v2.py</v>
       </c>
       <c r="S89" s="5" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>37</v>
       </c>
@@ -8565,10 +8565,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/data/reg/pres/pol_inorg/v02/proc_log/pol_inorg.py;pol_inorg2.py</v>
       </c>
       <c r="S90" s="5" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>38</v>
       </c>
@@ -8604,7 +8604,7 @@
       <c r="R91" s="6"/>
       <c r="S91" s="5"/>
     </row>
-    <row r="92" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>39</v>
       </c>
@@ -8661,10 +8661,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/data/reg/pres/pol_org/v01/proc_log/pol_org.py;pol_org2.py</v>
       </c>
       <c r="S92" s="5" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>40</v>
       </c>
@@ -8721,10 +8721,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/data/reg/act/ship/v01/proc_log/act_ship_reg_s01_v01.2.Rmd</v>
       </c>
       <c r="S93" s="5" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>41</v>
       </c>
@@ -8781,10 +8781,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/data/reg/act/recr_tourism/tourism_hotels/v01/proc_log/act_recr_tourism_reg_tourism_hotels_s01_v01.Rmd</v>
       </c>
       <c r="S94" s="5" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>42</v>
       </c>
@@ -8841,10 +8841,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/data/reg/act/recr_diving/diving/v01/proc_log/act_recr_diving_reg_diving_s01_v01.Rmd</v>
       </c>
       <c r="S95" s="5" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>43</v>
       </c>
@@ -8880,7 +8880,7 @@
       <c r="R96" s="6"/>
       <c r="S96" s="5"/>
     </row>
-    <row r="97" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>44</v>
       </c>
@@ -8937,10 +8937,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/data/reg/act/ship/v01/proc_log/act_ship_reg_s01_v01.2.Rmd</v>
       </c>
       <c r="S97" s="5" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="98" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>45</v>
       </c>
@@ -8997,10 +8997,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/data/reg/act/ship/v01/proc_log/act_ship_reg_s01_v01.2.Rmd</v>
       </c>
       <c r="S98" s="5" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="99" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>46</v>
       </c>
@@ -9057,10 +9057,10 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/data/reg/act/ship/v01/proc_log/act_ship_reg_s01_v01.2.Rmd</v>
       </c>
       <c r="S99" s="5" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="100" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>47</v>
       </c>
@@ -9096,7 +9096,7 @@
       <c r="R100" s="6"/>
       <c r="S100" s="5"/>
     </row>
-    <row r="101" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>48</v>
       </c>
@@ -9153,3614 +9153,3614 @@
         <v>https://github.com/WIOSymphony/wiosym/blob/main/data/reg/act/survey/seismic_survey/v01/proc_log/act_survey_reg_seismic_survey_s01_v01.Rmd</v>
       </c>
       <c r="S101" s="5" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="102" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I102" s="18"/>
       <c r="J102" s="21"/>
     </row>
-    <row r="103" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I103" s="18"/>
       <c r="J103" s="21"/>
     </row>
-    <row r="104" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I104" s="18"/>
       <c r="J104" s="21"/>
     </row>
-    <row r="105" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I105" s="18"/>
       <c r="J105" s="21"/>
     </row>
-    <row r="106" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I106" s="18"/>
       <c r="J106" s="21"/>
     </row>
-    <row r="107" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I107" s="18"/>
       <c r="J107" s="18"/>
     </row>
-    <row r="108" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I108" s="18"/>
       <c r="J108" s="18"/>
     </row>
-    <row r="109" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I109" s="18"/>
       <c r="J109" s="18"/>
     </row>
-    <row r="110" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I110" s="18"/>
       <c r="J110" s="18"/>
     </row>
-    <row r="111" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I111" s="18"/>
       <c r="J111" s="18"/>
     </row>
-    <row r="112" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I112" s="18"/>
       <c r="J112" s="18"/>
     </row>
-    <row r="113" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I113" s="18"/>
       <c r="J113" s="18"/>
     </row>
-    <row r="114" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I114" s="18"/>
       <c r="J114" s="18"/>
     </row>
-    <row r="115" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I115" s="18"/>
       <c r="J115" s="18"/>
     </row>
-    <row r="116" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I116" s="18"/>
       <c r="J116" s="18"/>
     </row>
-    <row r="117" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I117" s="18"/>
       <c r="J117" s="18"/>
     </row>
-    <row r="118" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I118" s="18"/>
       <c r="J118" s="18"/>
     </row>
-    <row r="119" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I119" s="18"/>
       <c r="J119" s="18"/>
     </row>
-    <row r="120" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I120" s="18"/>
       <c r="J120" s="18"/>
     </row>
-    <row r="121" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I121" s="18"/>
       <c r="J121" s="18"/>
     </row>
-    <row r="122" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I122" s="18"/>
       <c r="J122" s="18"/>
     </row>
-    <row r="123" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I123" s="18"/>
       <c r="J123" s="18"/>
     </row>
-    <row r="124" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I124" s="18"/>
       <c r="J124" s="18"/>
     </row>
-    <row r="125" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I125" s="18"/>
       <c r="J125" s="18"/>
     </row>
-    <row r="126" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I126" s="18"/>
       <c r="J126" s="18"/>
     </row>
-    <row r="127" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I127" s="18"/>
       <c r="J127" s="18"/>
     </row>
-    <row r="128" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I128" s="18"/>
       <c r="J128" s="18"/>
     </row>
-    <row r="129" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I129" s="18"/>
       <c r="J129" s="18"/>
     </row>
-    <row r="130" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I130" s="18"/>
       <c r="J130" s="18"/>
     </row>
-    <row r="131" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I131" s="18"/>
       <c r="J131" s="18"/>
     </row>
-    <row r="132" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I132" s="18"/>
       <c r="J132" s="18"/>
     </row>
-    <row r="133" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I133" s="18"/>
       <c r="J133" s="18"/>
     </row>
-    <row r="134" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I134" s="18"/>
       <c r="J134" s="18"/>
     </row>
-    <row r="135" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I135" s="18"/>
       <c r="J135" s="18"/>
     </row>
-    <row r="136" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I136" s="18"/>
       <c r="J136" s="18"/>
     </row>
-    <row r="137" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I137" s="18"/>
       <c r="J137" s="18"/>
     </row>
-    <row r="138" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I138" s="18"/>
       <c r="J138" s="18"/>
     </row>
-    <row r="139" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I139" s="18"/>
       <c r="J139" s="18"/>
     </row>
-    <row r="140" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I140" s="18"/>
       <c r="J140" s="18"/>
     </row>
-    <row r="141" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I141" s="18"/>
       <c r="J141" s="18"/>
     </row>
-    <row r="142" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I142" s="18"/>
       <c r="J142" s="18"/>
     </row>
-    <row r="143" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I143" s="18"/>
       <c r="J143" s="18"/>
     </row>
-    <row r="144" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I144" s="18"/>
       <c r="J144" s="18"/>
     </row>
-    <row r="145" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I145" s="18"/>
       <c r="J145" s="18"/>
     </row>
-    <row r="146" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I146" s="18"/>
       <c r="J146" s="18"/>
     </row>
-    <row r="147" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I147" s="18"/>
       <c r="J147" s="18"/>
     </row>
-    <row r="148" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I148" s="18"/>
       <c r="J148" s="18"/>
     </row>
-    <row r="149" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I149" s="18"/>
       <c r="J149" s="18"/>
     </row>
-    <row r="150" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I150" s="18"/>
       <c r="J150" s="18"/>
     </row>
-    <row r="151" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I151" s="18"/>
       <c r="J151" s="18"/>
     </row>
-    <row r="152" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I152" s="18"/>
       <c r="J152" s="18"/>
     </row>
-    <row r="153" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I153" s="18"/>
       <c r="J153" s="18"/>
     </row>
-    <row r="154" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I154" s="18"/>
       <c r="J154" s="18"/>
     </row>
-    <row r="155" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I155" s="18"/>
       <c r="J155" s="18"/>
     </row>
-    <row r="156" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I156" s="18"/>
       <c r="J156" s="18"/>
     </row>
-    <row r="157" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I157" s="18"/>
       <c r="J157" s="18"/>
     </row>
-    <row r="158" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I158" s="18"/>
       <c r="J158" s="18"/>
     </row>
-    <row r="159" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I159" s="18"/>
       <c r="J159" s="18"/>
     </row>
-    <row r="160" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I160" s="18"/>
       <c r="J160" s="18"/>
     </row>
-    <row r="161" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I161" s="18"/>
       <c r="J161" s="18"/>
     </row>
-    <row r="162" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I162" s="18"/>
       <c r="J162" s="18"/>
     </row>
-    <row r="163" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I163" s="18"/>
       <c r="J163" s="18"/>
     </row>
-    <row r="164" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I164" s="18"/>
       <c r="J164" s="18"/>
     </row>
-    <row r="165" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I165" s="18"/>
       <c r="J165" s="18"/>
     </row>
-    <row r="166" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I166" s="18"/>
       <c r="J166" s="18"/>
     </row>
-    <row r="167" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I167" s="18"/>
       <c r="J167" s="18"/>
     </row>
-    <row r="168" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I168" s="18"/>
       <c r="J168" s="18"/>
     </row>
-    <row r="169" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I169" s="18"/>
       <c r="J169" s="18"/>
     </row>
-    <row r="170" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I170" s="18"/>
       <c r="J170" s="18"/>
     </row>
-    <row r="171" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I171" s="18"/>
       <c r="J171" s="18"/>
     </row>
-    <row r="172" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I172" s="18"/>
       <c r="J172" s="18"/>
     </row>
-    <row r="173" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I173" s="18"/>
       <c r="J173" s="18"/>
     </row>
-    <row r="174" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I174" s="18"/>
       <c r="J174" s="18"/>
     </row>
-    <row r="175" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I175" s="18"/>
       <c r="J175" s="18"/>
     </row>
-    <row r="176" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I176" s="18"/>
       <c r="J176" s="18"/>
     </row>
-    <row r="177" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I177" s="18"/>
       <c r="J177" s="18"/>
     </row>
-    <row r="178" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I178" s="18"/>
       <c r="J178" s="18"/>
     </row>
-    <row r="179" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I179" s="18"/>
       <c r="J179" s="18"/>
     </row>
-    <row r="180" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I180" s="18"/>
       <c r="J180" s="18"/>
     </row>
-    <row r="181" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I181" s="18"/>
       <c r="J181" s="18"/>
     </row>
-    <row r="182" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I182" s="18"/>
       <c r="J182" s="18"/>
     </row>
-    <row r="183" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I183" s="18"/>
       <c r="J183" s="18"/>
     </row>
-    <row r="184" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I184" s="18"/>
       <c r="J184" s="18"/>
     </row>
-    <row r="185" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I185" s="18"/>
       <c r="J185" s="18"/>
     </row>
-    <row r="186" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I186" s="18"/>
       <c r="J186" s="18"/>
     </row>
-    <row r="187" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I187" s="18"/>
       <c r="J187" s="18"/>
     </row>
-    <row r="188" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I188" s="18"/>
       <c r="J188" s="18"/>
     </row>
-    <row r="189" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I189" s="18"/>
       <c r="J189" s="18"/>
     </row>
-    <row r="190" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I190" s="18"/>
       <c r="J190" s="18"/>
     </row>
-    <row r="191" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I191" s="18"/>
       <c r="J191" s="18"/>
     </row>
-    <row r="192" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I192" s="18"/>
       <c r="J192" s="18"/>
     </row>
-    <row r="193" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I193" s="18"/>
       <c r="J193" s="18"/>
     </row>
-    <row r="194" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I194" s="18"/>
       <c r="J194" s="18"/>
     </row>
-    <row r="195" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I195" s="18"/>
       <c r="J195" s="18"/>
     </row>
-    <row r="196" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I196" s="18"/>
       <c r="J196" s="18"/>
     </row>
-    <row r="197" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I197" s="18"/>
       <c r="J197" s="18"/>
     </row>
-    <row r="198" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I198" s="18"/>
       <c r="J198" s="18"/>
     </row>
-    <row r="199" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I199" s="18"/>
       <c r="J199" s="18"/>
     </row>
-    <row r="200" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I200" s="18"/>
       <c r="J200" s="18"/>
     </row>
-    <row r="201" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I201" s="18"/>
       <c r="J201" s="18"/>
     </row>
-    <row r="202" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I202" s="18"/>
       <c r="J202" s="18"/>
     </row>
-    <row r="203" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I203" s="18"/>
       <c r="J203" s="18"/>
     </row>
-    <row r="204" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I204" s="18"/>
       <c r="J204" s="18"/>
     </row>
-    <row r="205" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I205" s="18"/>
       <c r="J205" s="18"/>
     </row>
-    <row r="206" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I206" s="18"/>
       <c r="J206" s="18"/>
     </row>
-    <row r="207" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I207" s="18"/>
       <c r="J207" s="18"/>
     </row>
-    <row r="208" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I208" s="18"/>
       <c r="J208" s="18"/>
     </row>
-    <row r="209" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I209" s="18"/>
       <c r="J209" s="18"/>
     </row>
-    <row r="210" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I210" s="18"/>
       <c r="J210" s="18"/>
     </row>
-    <row r="211" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I211" s="18"/>
       <c r="J211" s="18"/>
     </row>
-    <row r="212" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I212" s="18"/>
       <c r="J212" s="18"/>
     </row>
-    <row r="213" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I213" s="18"/>
       <c r="J213" s="18"/>
     </row>
-    <row r="214" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I214" s="18"/>
       <c r="J214" s="18"/>
     </row>
-    <row r="215" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I215" s="18"/>
       <c r="J215" s="18"/>
     </row>
-    <row r="216" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I216" s="18"/>
       <c r="J216" s="18"/>
     </row>
-    <row r="217" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I217" s="18"/>
       <c r="J217" s="18"/>
     </row>
-    <row r="218" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I218" s="18"/>
       <c r="J218" s="18"/>
     </row>
-    <row r="219" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I219" s="18"/>
       <c r="J219" s="18"/>
     </row>
-    <row r="220" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I220" s="18"/>
       <c r="J220" s="18"/>
     </row>
-    <row r="221" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I221" s="18"/>
       <c r="J221" s="18"/>
     </row>
-    <row r="222" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I222" s="18"/>
       <c r="J222" s="18"/>
     </row>
-    <row r="223" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I223" s="18"/>
       <c r="J223" s="18"/>
     </row>
-    <row r="224" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I224" s="18"/>
       <c r="J224" s="18"/>
     </row>
-    <row r="225" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I225" s="18"/>
       <c r="J225" s="18"/>
     </row>
-    <row r="226" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I226" s="18"/>
       <c r="J226" s="18"/>
     </row>
-    <row r="227" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I227" s="18"/>
       <c r="J227" s="18"/>
     </row>
-    <row r="228" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I228" s="18"/>
       <c r="J228" s="18"/>
     </row>
-    <row r="229" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I229" s="18"/>
       <c r="J229" s="18"/>
     </row>
-    <row r="230" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I230" s="18"/>
       <c r="J230" s="18"/>
     </row>
-    <row r="231" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I231" s="18"/>
       <c r="J231" s="18"/>
     </row>
-    <row r="232" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I232" s="18"/>
       <c r="J232" s="18"/>
     </row>
-    <row r="233" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I233" s="18"/>
       <c r="J233" s="18"/>
     </row>
-    <row r="234" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I234" s="18"/>
       <c r="J234" s="18"/>
     </row>
-    <row r="235" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I235" s="18"/>
       <c r="J235" s="18"/>
     </row>
-    <row r="236" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I236" s="18"/>
       <c r="J236" s="18"/>
     </row>
-    <row r="237" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I237" s="18"/>
       <c r="J237" s="18"/>
     </row>
-    <row r="238" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I238" s="18"/>
       <c r="J238" s="18"/>
     </row>
-    <row r="239" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I239" s="18"/>
       <c r="J239" s="18"/>
     </row>
-    <row r="240" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I240" s="18"/>
       <c r="J240" s="18"/>
     </row>
-    <row r="241" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I241" s="18"/>
       <c r="J241" s="18"/>
     </row>
-    <row r="242" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I242" s="18"/>
       <c r="J242" s="18"/>
     </row>
-    <row r="243" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I243" s="18"/>
       <c r="J243" s="18"/>
     </row>
-    <row r="244" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I244" s="18"/>
       <c r="J244" s="18"/>
     </row>
-    <row r="245" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I245" s="18"/>
       <c r="J245" s="18"/>
     </row>
-    <row r="246" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I246" s="18"/>
       <c r="J246" s="18"/>
     </row>
-    <row r="247" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I247" s="18"/>
       <c r="J247" s="18"/>
     </row>
-    <row r="248" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I248" s="18"/>
       <c r="J248" s="18"/>
     </row>
-    <row r="249" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I249" s="18"/>
       <c r="J249" s="18"/>
     </row>
-    <row r="250" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I250" s="18"/>
       <c r="J250" s="18"/>
     </row>
-    <row r="251" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I251" s="18"/>
       <c r="J251" s="18"/>
     </row>
-    <row r="252" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I252" s="18"/>
       <c r="J252" s="18"/>
     </row>
-    <row r="253" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I253" s="18"/>
       <c r="J253" s="18"/>
     </row>
-    <row r="254" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I254" s="18"/>
       <c r="J254" s="18"/>
     </row>
-    <row r="255" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I255" s="18"/>
       <c r="J255" s="18"/>
     </row>
-    <row r="256" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I256" s="18"/>
       <c r="J256" s="18"/>
     </row>
-    <row r="257" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I257" s="18"/>
       <c r="J257" s="18"/>
     </row>
-    <row r="258" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I258" s="18"/>
       <c r="J258" s="18"/>
     </row>
-    <row r="259" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I259" s="18"/>
       <c r="J259" s="18"/>
     </row>
-    <row r="260" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I260" s="18"/>
       <c r="J260" s="18"/>
     </row>
-    <row r="261" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I261" s="18"/>
       <c r="J261" s="18"/>
     </row>
-    <row r="262" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I262" s="18"/>
       <c r="J262" s="18"/>
     </row>
-    <row r="263" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I263" s="18"/>
       <c r="J263" s="18"/>
     </row>
-    <row r="264" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I264" s="18"/>
       <c r="J264" s="18"/>
     </row>
-    <row r="265" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I265" s="18"/>
       <c r="J265" s="18"/>
     </row>
-    <row r="266" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I266" s="18"/>
       <c r="J266" s="18"/>
     </row>
-    <row r="267" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I267" s="18"/>
       <c r="J267" s="18"/>
     </row>
-    <row r="268" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I268" s="18"/>
       <c r="J268" s="18"/>
     </row>
-    <row r="269" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I269" s="18"/>
       <c r="J269" s="18"/>
     </row>
-    <row r="270" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I270" s="18"/>
       <c r="J270" s="18"/>
     </row>
-    <row r="271" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I271" s="18"/>
       <c r="J271" s="18"/>
     </row>
-    <row r="272" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I272" s="18"/>
       <c r="J272" s="18"/>
     </row>
-    <row r="273" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I273" s="18"/>
       <c r="J273" s="18"/>
     </row>
-    <row r="274" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I274" s="18"/>
       <c r="J274" s="18"/>
     </row>
-    <row r="275" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I275" s="18"/>
       <c r="J275" s="18"/>
     </row>
-    <row r="276" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I276" s="18"/>
       <c r="J276" s="18"/>
     </row>
-    <row r="277" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I277" s="18"/>
       <c r="J277" s="18"/>
     </row>
-    <row r="278" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I278" s="18"/>
       <c r="J278" s="18"/>
     </row>
-    <row r="279" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I279" s="18"/>
       <c r="J279" s="18"/>
     </row>
-    <row r="280" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I280" s="18"/>
       <c r="J280" s="18"/>
     </row>
-    <row r="281" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I281" s="18"/>
       <c r="J281" s="18"/>
     </row>
-    <row r="282" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I282" s="18"/>
       <c r="J282" s="18"/>
     </row>
-    <row r="283" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I283" s="18"/>
       <c r="J283" s="18"/>
     </row>
-    <row r="284" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I284" s="18"/>
       <c r="J284" s="18"/>
     </row>
-    <row r="285" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I285" s="18"/>
       <c r="J285" s="18"/>
     </row>
-    <row r="286" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I286" s="18"/>
       <c r="J286" s="18"/>
     </row>
-    <row r="287" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I287" s="18"/>
       <c r="J287" s="18"/>
     </row>
-    <row r="288" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I288" s="18"/>
       <c r="J288" s="18"/>
     </row>
-    <row r="289" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I289" s="18"/>
       <c r="J289" s="18"/>
     </row>
-    <row r="290" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I290" s="18"/>
       <c r="J290" s="18"/>
     </row>
-    <row r="291" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I291" s="18"/>
       <c r="J291" s="18"/>
     </row>
-    <row r="292" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I292" s="18"/>
       <c r="J292" s="18"/>
     </row>
-    <row r="293" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I293" s="18"/>
       <c r="J293" s="18"/>
     </row>
-    <row r="294" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I294" s="18"/>
       <c r="J294" s="18"/>
     </row>
-    <row r="295" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I295" s="18"/>
       <c r="J295" s="18"/>
     </row>
-    <row r="296" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I296" s="18"/>
       <c r="J296" s="18"/>
     </row>
-    <row r="297" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I297" s="18"/>
       <c r="J297" s="18"/>
     </row>
-    <row r="298" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I298" s="18"/>
       <c r="J298" s="18"/>
     </row>
-    <row r="299" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I299" s="18"/>
       <c r="J299" s="18"/>
     </row>
-    <row r="300" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I300" s="18"/>
       <c r="J300" s="18"/>
     </row>
-    <row r="301" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I301" s="18"/>
       <c r="J301" s="18"/>
     </row>
-    <row r="302" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I302" s="18"/>
       <c r="J302" s="18"/>
     </row>
-    <row r="303" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I303" s="18"/>
       <c r="J303" s="18"/>
     </row>
-    <row r="304" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I304" s="18"/>
       <c r="J304" s="18"/>
     </row>
-    <row r="305" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I305" s="18"/>
       <c r="J305" s="18"/>
     </row>
-    <row r="306" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I306" s="18"/>
       <c r="J306" s="18"/>
     </row>
-    <row r="307" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I307" s="18"/>
       <c r="J307" s="18"/>
     </row>
-    <row r="308" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I308" s="18"/>
       <c r="J308" s="18"/>
     </row>
-    <row r="309" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I309" s="18"/>
       <c r="J309" s="18"/>
     </row>
-    <row r="310" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I310" s="18"/>
       <c r="J310" s="18"/>
     </row>
-    <row r="311" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I311" s="18"/>
       <c r="J311" s="18"/>
     </row>
-    <row r="312" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I312" s="18"/>
       <c r="J312" s="18"/>
     </row>
-    <row r="313" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I313" s="18"/>
       <c r="J313" s="18"/>
     </row>
-    <row r="314" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I314" s="18"/>
       <c r="J314" s="18"/>
     </row>
-    <row r="315" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I315" s="18"/>
       <c r="J315" s="18"/>
     </row>
-    <row r="316" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I316" s="18"/>
       <c r="J316" s="18"/>
     </row>
-    <row r="317" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I317" s="18"/>
       <c r="J317" s="18"/>
     </row>
-    <row r="318" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I318" s="18"/>
       <c r="J318" s="18"/>
     </row>
-    <row r="319" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I319" s="18"/>
       <c r="J319" s="18"/>
     </row>
-    <row r="320" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I320" s="18"/>
       <c r="J320" s="18"/>
     </row>
-    <row r="321" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I321" s="18"/>
       <c r="J321" s="18"/>
     </row>
-    <row r="322" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I322" s="18"/>
       <c r="J322" s="18"/>
     </row>
-    <row r="323" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I323" s="18"/>
       <c r="J323" s="18"/>
     </row>
-    <row r="324" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I324" s="18"/>
       <c r="J324" s="18"/>
     </row>
-    <row r="325" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I325" s="18"/>
       <c r="J325" s="18"/>
     </row>
-    <row r="326" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I326" s="18"/>
       <c r="J326" s="18"/>
     </row>
-    <row r="327" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I327" s="18"/>
       <c r="J327" s="18"/>
     </row>
-    <row r="328" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I328" s="18"/>
       <c r="J328" s="18"/>
     </row>
-    <row r="329" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I329" s="18"/>
       <c r="J329" s="18"/>
     </row>
-    <row r="330" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I330" s="18"/>
       <c r="J330" s="18"/>
     </row>
-    <row r="331" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I331" s="18"/>
       <c r="J331" s="18"/>
     </row>
-    <row r="332" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I332" s="18"/>
       <c r="J332" s="18"/>
     </row>
-    <row r="333" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I333" s="18"/>
       <c r="J333" s="18"/>
     </row>
-    <row r="334" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I334" s="18"/>
       <c r="J334" s="18"/>
     </row>
-    <row r="335" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I335" s="18"/>
       <c r="J335" s="18"/>
     </row>
-    <row r="336" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I336" s="18"/>
       <c r="J336" s="18"/>
     </row>
-    <row r="337" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I337" s="18"/>
       <c r="J337" s="18"/>
     </row>
-    <row r="338" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I338" s="18"/>
       <c r="J338" s="18"/>
     </row>
-    <row r="339" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I339" s="18"/>
       <c r="J339" s="18"/>
     </row>
-    <row r="340" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I340" s="18"/>
       <c r="J340" s="18"/>
     </row>
-    <row r="341" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I341" s="18"/>
       <c r="J341" s="18"/>
     </row>
-    <row r="342" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I342" s="18"/>
       <c r="J342" s="18"/>
     </row>
-    <row r="343" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I343" s="18"/>
       <c r="J343" s="18"/>
     </row>
-    <row r="344" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I344" s="18"/>
       <c r="J344" s="18"/>
     </row>
-    <row r="345" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I345" s="18"/>
       <c r="J345" s="18"/>
     </row>
-    <row r="346" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I346" s="18"/>
       <c r="J346" s="18"/>
     </row>
-    <row r="347" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I347" s="18"/>
       <c r="J347" s="18"/>
     </row>
-    <row r="348" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I348" s="18"/>
       <c r="J348" s="18"/>
     </row>
-    <row r="349" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I349" s="18"/>
       <c r="J349" s="18"/>
     </row>
-    <row r="350" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I350" s="18"/>
       <c r="J350" s="18"/>
     </row>
-    <row r="351" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I351" s="18"/>
       <c r="J351" s="18"/>
     </row>
-    <row r="352" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I352" s="18"/>
       <c r="J352" s="18"/>
     </row>
-    <row r="353" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I353" s="18"/>
       <c r="J353" s="18"/>
     </row>
-    <row r="354" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I354" s="18"/>
       <c r="J354" s="18"/>
     </row>
-    <row r="355" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I355" s="18"/>
       <c r="J355" s="18"/>
     </row>
-    <row r="356" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I356" s="18"/>
       <c r="J356" s="18"/>
     </row>
-    <row r="357" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I357" s="18"/>
       <c r="J357" s="18"/>
     </row>
-    <row r="358" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I358" s="18"/>
       <c r="J358" s="18"/>
     </row>
-    <row r="359" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I359" s="18"/>
       <c r="J359" s="18"/>
     </row>
-    <row r="360" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I360" s="18"/>
       <c r="J360" s="18"/>
     </row>
-    <row r="361" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I361" s="18"/>
       <c r="J361" s="18"/>
     </row>
-    <row r="362" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I362" s="18"/>
       <c r="J362" s="18"/>
     </row>
-    <row r="363" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I363" s="18"/>
       <c r="J363" s="18"/>
     </row>
-    <row r="364" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I364" s="18"/>
       <c r="J364" s="18"/>
     </row>
-    <row r="365" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I365" s="18"/>
       <c r="J365" s="18"/>
     </row>
-    <row r="366" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I366" s="18"/>
       <c r="J366" s="18"/>
     </row>
-    <row r="367" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I367" s="18"/>
       <c r="J367" s="18"/>
     </row>
-    <row r="368" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I368" s="18"/>
       <c r="J368" s="18"/>
     </row>
-    <row r="369" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I369" s="18"/>
       <c r="J369" s="18"/>
     </row>
-    <row r="370" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I370" s="18"/>
       <c r="J370" s="18"/>
     </row>
-    <row r="371" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I371" s="18"/>
       <c r="J371" s="18"/>
     </row>
-    <row r="372" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I372" s="18"/>
       <c r="J372" s="18"/>
     </row>
-    <row r="373" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I373" s="18"/>
       <c r="J373" s="18"/>
     </row>
-    <row r="374" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I374" s="18"/>
       <c r="J374" s="18"/>
     </row>
-    <row r="375" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I375" s="18"/>
       <c r="J375" s="18"/>
     </row>
-    <row r="376" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I376" s="18"/>
       <c r="J376" s="18"/>
     </row>
-    <row r="377" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I377" s="18"/>
       <c r="J377" s="18"/>
     </row>
-    <row r="378" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I378" s="18"/>
       <c r="J378" s="18"/>
     </row>
-    <row r="379" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I379" s="18"/>
       <c r="J379" s="18"/>
     </row>
-    <row r="380" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I380" s="18"/>
       <c r="J380" s="18"/>
     </row>
-    <row r="381" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I381" s="18"/>
       <c r="J381" s="18"/>
     </row>
-    <row r="382" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I382" s="18"/>
       <c r="J382" s="18"/>
     </row>
-    <row r="383" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I383" s="18"/>
       <c r="J383" s="18"/>
     </row>
-    <row r="384" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I384" s="18"/>
       <c r="J384" s="18"/>
     </row>
-    <row r="385" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I385" s="18"/>
       <c r="J385" s="18"/>
     </row>
-    <row r="386" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I386" s="18"/>
       <c r="J386" s="18"/>
     </row>
-    <row r="387" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I387" s="18"/>
       <c r="J387" s="18"/>
     </row>
-    <row r="388" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I388" s="18"/>
       <c r="J388" s="18"/>
     </row>
-    <row r="389" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I389" s="18"/>
       <c r="J389" s="18"/>
     </row>
-    <row r="390" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I390" s="18"/>
       <c r="J390" s="18"/>
     </row>
-    <row r="391" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I391" s="18"/>
       <c r="J391" s="18"/>
     </row>
-    <row r="392" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I392" s="18"/>
       <c r="J392" s="18"/>
     </row>
-    <row r="393" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I393" s="18"/>
       <c r="J393" s="18"/>
     </row>
-    <row r="394" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I394" s="18"/>
       <c r="J394" s="18"/>
     </row>
-    <row r="395" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I395" s="18"/>
       <c r="J395" s="18"/>
     </row>
-    <row r="396" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I396" s="18"/>
       <c r="J396" s="18"/>
     </row>
-    <row r="397" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I397" s="18"/>
       <c r="J397" s="18"/>
     </row>
-    <row r="398" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I398" s="18"/>
       <c r="J398" s="18"/>
     </row>
-    <row r="399" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I399" s="18"/>
       <c r="J399" s="18"/>
     </row>
-    <row r="400" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I400" s="18"/>
       <c r="J400" s="18"/>
     </row>
-    <row r="401" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I401" s="18"/>
       <c r="J401" s="18"/>
     </row>
-    <row r="402" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I402" s="18"/>
       <c r="J402" s="18"/>
     </row>
-    <row r="403" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I403" s="18"/>
       <c r="J403" s="18"/>
     </row>
-    <row r="404" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I404" s="18"/>
       <c r="J404" s="18"/>
     </row>
-    <row r="405" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I405" s="18"/>
       <c r="J405" s="18"/>
     </row>
-    <row r="406" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I406" s="18"/>
       <c r="J406" s="18"/>
     </row>
-    <row r="407" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I407" s="18"/>
       <c r="J407" s="18"/>
     </row>
-    <row r="408" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I408" s="18"/>
       <c r="J408" s="18"/>
     </row>
-    <row r="409" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I409" s="18"/>
       <c r="J409" s="18"/>
     </row>
-    <row r="410" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I410" s="18"/>
       <c r="J410" s="18"/>
     </row>
-    <row r="411" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I411" s="18"/>
       <c r="J411" s="18"/>
     </row>
-    <row r="412" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I412" s="18"/>
       <c r="J412" s="18"/>
     </row>
-    <row r="413" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I413" s="18"/>
       <c r="J413" s="18"/>
     </row>
-    <row r="414" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I414" s="18"/>
       <c r="J414" s="18"/>
     </row>
-    <row r="415" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I415" s="18"/>
       <c r="J415" s="18"/>
     </row>
-    <row r="416" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I416" s="18"/>
       <c r="J416" s="18"/>
     </row>
-    <row r="417" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I417" s="18"/>
       <c r="J417" s="18"/>
     </row>
-    <row r="418" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I418" s="18"/>
       <c r="J418" s="18"/>
     </row>
-    <row r="419" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I419" s="18"/>
       <c r="J419" s="18"/>
     </row>
-    <row r="420" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I420" s="18"/>
       <c r="J420" s="18"/>
     </row>
-    <row r="421" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I421" s="18"/>
       <c r="J421" s="18"/>
     </row>
-    <row r="422" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I422" s="18"/>
       <c r="J422" s="18"/>
     </row>
-    <row r="423" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I423" s="18"/>
       <c r="J423" s="18"/>
     </row>
-    <row r="424" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I424" s="18"/>
       <c r="J424" s="18"/>
     </row>
-    <row r="425" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I425" s="18"/>
       <c r="J425" s="18"/>
     </row>
-    <row r="426" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I426" s="18"/>
       <c r="J426" s="18"/>
     </row>
-    <row r="427" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I427" s="18"/>
       <c r="J427" s="18"/>
     </row>
-    <row r="428" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I428" s="18"/>
       <c r="J428" s="18"/>
     </row>
-    <row r="429" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I429" s="18"/>
       <c r="J429" s="18"/>
     </row>
-    <row r="430" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I430" s="18"/>
       <c r="J430" s="18"/>
     </row>
-    <row r="431" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I431" s="18"/>
       <c r="J431" s="18"/>
     </row>
-    <row r="432" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I432" s="18"/>
       <c r="J432" s="18"/>
     </row>
-    <row r="433" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I433" s="18"/>
       <c r="J433" s="18"/>
     </row>
-    <row r="434" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I434" s="18"/>
       <c r="J434" s="18"/>
     </row>
-    <row r="435" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I435" s="18"/>
       <c r="J435" s="18"/>
     </row>
-    <row r="436" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I436" s="18"/>
       <c r="J436" s="18"/>
     </row>
-    <row r="437" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I437" s="18"/>
       <c r="J437" s="18"/>
     </row>
-    <row r="438" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I438" s="18"/>
       <c r="J438" s="18"/>
     </row>
-    <row r="439" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I439" s="18"/>
       <c r="J439" s="18"/>
     </row>
-    <row r="440" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I440" s="18"/>
       <c r="J440" s="18"/>
     </row>
-    <row r="441" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I441" s="18"/>
       <c r="J441" s="18"/>
     </row>
-    <row r="442" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I442" s="18"/>
       <c r="J442" s="18"/>
     </row>
-    <row r="443" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I443" s="18"/>
       <c r="J443" s="18"/>
     </row>
-    <row r="444" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I444" s="18"/>
       <c r="J444" s="18"/>
     </row>
-    <row r="445" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I445" s="18"/>
       <c r="J445" s="18"/>
     </row>
-    <row r="446" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I446" s="18"/>
       <c r="J446" s="18"/>
     </row>
-    <row r="447" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I447" s="18"/>
       <c r="J447" s="18"/>
     </row>
-    <row r="448" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I448" s="18"/>
       <c r="J448" s="18"/>
     </row>
-    <row r="449" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I449" s="18"/>
       <c r="J449" s="18"/>
     </row>
-    <row r="450" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I450" s="18"/>
       <c r="J450" s="18"/>
     </row>
-    <row r="451" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I451" s="18"/>
       <c r="J451" s="18"/>
     </row>
-    <row r="452" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I452" s="18"/>
       <c r="J452" s="18"/>
     </row>
-    <row r="453" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I453" s="18"/>
       <c r="J453" s="18"/>
     </row>
-    <row r="454" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I454" s="18"/>
       <c r="J454" s="18"/>
     </row>
-    <row r="455" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I455" s="18"/>
       <c r="J455" s="18"/>
     </row>
-    <row r="456" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I456" s="18"/>
       <c r="J456" s="18"/>
     </row>
-    <row r="457" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I457" s="18"/>
       <c r="J457" s="18"/>
     </row>
-    <row r="458" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I458" s="18"/>
       <c r="J458" s="18"/>
     </row>
-    <row r="459" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I459" s="18"/>
       <c r="J459" s="18"/>
     </row>
-    <row r="460" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I460" s="18"/>
       <c r="J460" s="18"/>
     </row>
-    <row r="461" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I461" s="18"/>
       <c r="J461" s="18"/>
     </row>
-    <row r="462" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I462" s="18"/>
       <c r="J462" s="18"/>
     </row>
-    <row r="463" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I463" s="18"/>
       <c r="J463" s="18"/>
     </row>
-    <row r="464" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I464" s="18"/>
       <c r="J464" s="18"/>
     </row>
-    <row r="465" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I465" s="18"/>
       <c r="J465" s="18"/>
     </row>
-    <row r="466" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I466" s="18"/>
       <c r="J466" s="18"/>
     </row>
-    <row r="467" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I467" s="18"/>
       <c r="J467" s="18"/>
     </row>
-    <row r="468" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I468" s="18"/>
       <c r="J468" s="18"/>
     </row>
-    <row r="469" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I469" s="18"/>
       <c r="J469" s="18"/>
     </row>
-    <row r="470" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I470" s="18"/>
       <c r="J470" s="18"/>
     </row>
-    <row r="471" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I471" s="18"/>
       <c r="J471" s="18"/>
     </row>
-    <row r="472" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I472" s="18"/>
       <c r="J472" s="18"/>
     </row>
-    <row r="473" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I473" s="18"/>
       <c r="J473" s="18"/>
     </row>
-    <row r="474" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I474" s="18"/>
       <c r="J474" s="18"/>
     </row>
-    <row r="475" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I475" s="18"/>
       <c r="J475" s="18"/>
     </row>
-    <row r="476" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I476" s="18"/>
       <c r="J476" s="18"/>
     </row>
-    <row r="477" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I477" s="18"/>
       <c r="J477" s="18"/>
     </row>
-    <row r="478" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I478" s="18"/>
       <c r="J478" s="18"/>
     </row>
-    <row r="479" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I479" s="18"/>
       <c r="J479" s="18"/>
     </row>
-    <row r="480" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I480" s="18"/>
       <c r="J480" s="18"/>
     </row>
-    <row r="481" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I481" s="18"/>
       <c r="J481" s="18"/>
     </row>
-    <row r="482" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I482" s="18"/>
       <c r="J482" s="18"/>
     </row>
-    <row r="483" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I483" s="18"/>
       <c r="J483" s="18"/>
     </row>
-    <row r="484" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I484" s="18"/>
       <c r="J484" s="18"/>
     </row>
-    <row r="485" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I485" s="18"/>
       <c r="J485" s="18"/>
     </row>
-    <row r="486" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I486" s="18"/>
       <c r="J486" s="18"/>
     </row>
-    <row r="487" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I487" s="18"/>
       <c r="J487" s="18"/>
     </row>
-    <row r="488" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I488" s="18"/>
       <c r="J488" s="18"/>
     </row>
-    <row r="489" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I489" s="18"/>
       <c r="J489" s="18"/>
     </row>
-    <row r="490" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I490" s="18"/>
       <c r="J490" s="18"/>
     </row>
-    <row r="491" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I491" s="18"/>
       <c r="J491" s="18"/>
     </row>
-    <row r="492" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I492" s="18"/>
       <c r="J492" s="18"/>
     </row>
-    <row r="493" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I493" s="18"/>
       <c r="J493" s="18"/>
     </row>
-    <row r="494" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I494" s="18"/>
       <c r="J494" s="18"/>
     </row>
-    <row r="495" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I495" s="18"/>
       <c r="J495" s="18"/>
     </row>
-    <row r="496" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I496" s="18"/>
       <c r="J496" s="18"/>
     </row>
-    <row r="497" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I497" s="18"/>
       <c r="J497" s="18"/>
     </row>
-    <row r="498" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I498" s="18"/>
       <c r="J498" s="18"/>
     </row>
-    <row r="499" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I499" s="18"/>
       <c r="J499" s="18"/>
     </row>
-    <row r="500" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I500" s="18"/>
       <c r="J500" s="18"/>
     </row>
-    <row r="501" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I501" s="18"/>
       <c r="J501" s="18"/>
     </row>
-    <row r="502" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I502" s="18"/>
       <c r="J502" s="18"/>
     </row>
-    <row r="503" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I503" s="18"/>
       <c r="J503" s="18"/>
     </row>
-    <row r="504" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I504" s="18"/>
       <c r="J504" s="18"/>
     </row>
-    <row r="505" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I505" s="18"/>
       <c r="J505" s="18"/>
     </row>
-    <row r="506" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I506" s="18"/>
       <c r="J506" s="18"/>
     </row>
-    <row r="507" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I507" s="18"/>
       <c r="J507" s="18"/>
     </row>
-    <row r="508" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I508" s="18"/>
       <c r="J508" s="18"/>
     </row>
-    <row r="509" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I509" s="18"/>
       <c r="J509" s="18"/>
     </row>
-    <row r="510" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I510" s="18"/>
       <c r="J510" s="18"/>
     </row>
-    <row r="511" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I511" s="18"/>
       <c r="J511" s="18"/>
     </row>
-    <row r="512" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I512" s="18"/>
       <c r="J512" s="18"/>
     </row>
-    <row r="513" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I513" s="18"/>
       <c r="J513" s="18"/>
     </row>
-    <row r="514" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I514" s="18"/>
       <c r="J514" s="18"/>
     </row>
-    <row r="515" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I515" s="18"/>
       <c r="J515" s="18"/>
     </row>
-    <row r="516" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I516" s="18"/>
       <c r="J516" s="18"/>
     </row>
-    <row r="517" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I517" s="18"/>
       <c r="J517" s="18"/>
     </row>
-    <row r="518" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I518" s="18"/>
       <c r="J518" s="18"/>
     </row>
-    <row r="519" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I519" s="18"/>
       <c r="J519" s="18"/>
     </row>
-    <row r="520" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I520" s="18"/>
       <c r="J520" s="18"/>
     </row>
-    <row r="521" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I521" s="18"/>
       <c r="J521" s="18"/>
     </row>
-    <row r="522" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I522" s="18"/>
       <c r="J522" s="18"/>
     </row>
-    <row r="523" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I523" s="18"/>
       <c r="J523" s="18"/>
     </row>
-    <row r="524" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I524" s="18"/>
       <c r="J524" s="18"/>
     </row>
-    <row r="525" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I525" s="18"/>
       <c r="J525" s="18"/>
     </row>
-    <row r="526" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I526" s="18"/>
       <c r="J526" s="18"/>
     </row>
-    <row r="527" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I527" s="18"/>
       <c r="J527" s="18"/>
     </row>
-    <row r="528" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I528" s="18"/>
       <c r="J528" s="18"/>
     </row>
-    <row r="529" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I529" s="18"/>
       <c r="J529" s="18"/>
     </row>
-    <row r="530" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I530" s="18"/>
       <c r="J530" s="18"/>
     </row>
-    <row r="531" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I531" s="18"/>
       <c r="J531" s="18"/>
     </row>
-    <row r="532" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I532" s="18"/>
       <c r="J532" s="18"/>
     </row>
-    <row r="533" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I533" s="18"/>
       <c r="J533" s="18"/>
     </row>
-    <row r="534" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I534" s="18"/>
       <c r="J534" s="18"/>
     </row>
-    <row r="535" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I535" s="18"/>
       <c r="J535" s="18"/>
     </row>
-    <row r="536" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I536" s="18"/>
       <c r="J536" s="18"/>
     </row>
-    <row r="537" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I537" s="18"/>
       <c r="J537" s="18"/>
     </row>
-    <row r="538" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I538" s="18"/>
       <c r="J538" s="18"/>
     </row>
-    <row r="539" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I539" s="18"/>
       <c r="J539" s="18"/>
     </row>
-    <row r="540" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I540" s="18"/>
       <c r="J540" s="18"/>
     </row>
-    <row r="541" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I541" s="18"/>
       <c r="J541" s="18"/>
     </row>
-    <row r="542" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I542" s="18"/>
       <c r="J542" s="18"/>
     </row>
-    <row r="543" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I543" s="18"/>
       <c r="J543" s="18"/>
     </row>
-    <row r="544" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I544" s="18"/>
       <c r="J544" s="18"/>
     </row>
-    <row r="545" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I545" s="18"/>
       <c r="J545" s="18"/>
     </row>
-    <row r="546" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I546" s="18"/>
       <c r="J546" s="18"/>
     </row>
-    <row r="547" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I547" s="18"/>
       <c r="J547" s="18"/>
     </row>
-    <row r="548" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I548" s="18"/>
       <c r="J548" s="18"/>
     </row>
-    <row r="549" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I549" s="18"/>
       <c r="J549" s="18"/>
     </row>
-    <row r="550" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I550" s="18"/>
       <c r="J550" s="18"/>
     </row>
-    <row r="551" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I551" s="18"/>
       <c r="J551" s="18"/>
     </row>
-    <row r="552" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I552" s="18"/>
       <c r="J552" s="18"/>
     </row>
-    <row r="553" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I553" s="18"/>
       <c r="J553" s="18"/>
     </row>
-    <row r="554" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I554" s="18"/>
       <c r="J554" s="18"/>
     </row>
-    <row r="555" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I555" s="18"/>
       <c r="J555" s="18"/>
     </row>
-    <row r="556" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I556" s="18"/>
       <c r="J556" s="18"/>
     </row>
-    <row r="557" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I557" s="18"/>
       <c r="J557" s="18"/>
     </row>
-    <row r="558" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I558" s="18"/>
       <c r="J558" s="18"/>
     </row>
-    <row r="559" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I559" s="18"/>
       <c r="J559" s="18"/>
     </row>
-    <row r="560" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I560" s="18"/>
       <c r="J560" s="18"/>
     </row>
-    <row r="561" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I561" s="18"/>
       <c r="J561" s="18"/>
     </row>
-    <row r="562" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I562" s="18"/>
       <c r="J562" s="18"/>
     </row>
-    <row r="563" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I563" s="18"/>
       <c r="J563" s="18"/>
     </row>
-    <row r="564" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I564" s="18"/>
       <c r="J564" s="18"/>
     </row>
-    <row r="565" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I565" s="18"/>
       <c r="J565" s="18"/>
     </row>
-    <row r="566" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I566" s="18"/>
       <c r="J566" s="18"/>
     </row>
-    <row r="567" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I567" s="18"/>
       <c r="J567" s="18"/>
     </row>
-    <row r="568" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I568" s="18"/>
       <c r="J568" s="18"/>
     </row>
-    <row r="569" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I569" s="18"/>
       <c r="J569" s="18"/>
     </row>
-    <row r="570" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I570" s="18"/>
       <c r="J570" s="18"/>
     </row>
-    <row r="571" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I571" s="18"/>
       <c r="J571" s="18"/>
     </row>
-    <row r="572" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I572" s="18"/>
       <c r="J572" s="18"/>
     </row>
-    <row r="573" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I573" s="18"/>
       <c r="J573" s="18"/>
     </row>
-    <row r="574" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I574" s="18"/>
       <c r="J574" s="18"/>
     </row>
-    <row r="575" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I575" s="18"/>
       <c r="J575" s="18"/>
     </row>
-    <row r="576" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I576" s="18"/>
       <c r="J576" s="18"/>
     </row>
-    <row r="577" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I577" s="18"/>
       <c r="J577" s="18"/>
     </row>
-    <row r="578" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I578" s="18"/>
       <c r="J578" s="18"/>
     </row>
-    <row r="579" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I579" s="18"/>
       <c r="J579" s="18"/>
     </row>
-    <row r="580" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I580" s="18"/>
       <c r="J580" s="18"/>
     </row>
-    <row r="581" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I581" s="18"/>
       <c r="J581" s="18"/>
     </row>
-    <row r="582" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I582" s="18"/>
       <c r="J582" s="18"/>
     </row>
-    <row r="583" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I583" s="18"/>
       <c r="J583" s="18"/>
     </row>
-    <row r="584" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I584" s="18"/>
       <c r="J584" s="18"/>
     </row>
-    <row r="585" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I585" s="18"/>
       <c r="J585" s="18"/>
     </row>
-    <row r="586" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I586" s="18"/>
       <c r="J586" s="18"/>
     </row>
-    <row r="587" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I587" s="18"/>
       <c r="J587" s="18"/>
     </row>
-    <row r="588" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I588" s="18"/>
       <c r="J588" s="18"/>
     </row>
-    <row r="589" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I589" s="18"/>
       <c r="J589" s="18"/>
     </row>
-    <row r="590" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I590" s="18"/>
       <c r="J590" s="18"/>
     </row>
-    <row r="591" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I591" s="18"/>
       <c r="J591" s="18"/>
     </row>
-    <row r="592" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I592" s="18"/>
       <c r="J592" s="18"/>
     </row>
-    <row r="593" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I593" s="18"/>
       <c r="J593" s="18"/>
     </row>
-    <row r="594" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I594" s="18"/>
       <c r="J594" s="18"/>
     </row>
-    <row r="595" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I595" s="18"/>
       <c r="J595" s="18"/>
     </row>
-    <row r="596" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I596" s="18"/>
       <c r="J596" s="18"/>
     </row>
-    <row r="597" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I597" s="18"/>
       <c r="J597" s="18"/>
     </row>
-    <row r="598" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I598" s="18"/>
       <c r="J598" s="18"/>
     </row>
-    <row r="599" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I599" s="18"/>
       <c r="J599" s="18"/>
     </row>
-    <row r="600" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I600" s="18"/>
       <c r="J600" s="18"/>
     </row>
-    <row r="601" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I601" s="18"/>
       <c r="J601" s="18"/>
     </row>
-    <row r="602" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I602" s="18"/>
       <c r="J602" s="18"/>
     </row>
-    <row r="603" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I603" s="18"/>
       <c r="J603" s="18"/>
     </row>
-    <row r="604" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I604" s="18"/>
       <c r="J604" s="18"/>
     </row>
-    <row r="605" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I605" s="18"/>
       <c r="J605" s="18"/>
     </row>
-    <row r="606" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I606" s="18"/>
       <c r="J606" s="18"/>
     </row>
-    <row r="607" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I607" s="18"/>
       <c r="J607" s="18"/>
     </row>
-    <row r="608" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I608" s="18"/>
       <c r="J608" s="18"/>
     </row>
-    <row r="609" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I609" s="18"/>
       <c r="J609" s="18"/>
     </row>
-    <row r="610" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I610" s="18"/>
       <c r="J610" s="18"/>
     </row>
-    <row r="611" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I611" s="18"/>
       <c r="J611" s="18"/>
     </row>
-    <row r="612" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I612" s="18"/>
       <c r="J612" s="18"/>
     </row>
-    <row r="613" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I613" s="18"/>
       <c r="J613" s="18"/>
     </row>
-    <row r="614" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I614" s="18"/>
       <c r="J614" s="18"/>
     </row>
-    <row r="615" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I615" s="18"/>
       <c r="J615" s="18"/>
     </row>
-    <row r="616" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I616" s="18"/>
       <c r="J616" s="18"/>
     </row>
-    <row r="617" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I617" s="18"/>
       <c r="J617" s="18"/>
     </row>
-    <row r="618" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I618" s="18"/>
       <c r="J618" s="18"/>
     </row>
-    <row r="619" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I619" s="18"/>
       <c r="J619" s="18"/>
     </row>
-    <row r="620" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I620" s="18"/>
       <c r="J620" s="18"/>
     </row>
-    <row r="621" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I621" s="18"/>
       <c r="J621" s="18"/>
     </row>
-    <row r="622" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I622" s="18"/>
       <c r="J622" s="18"/>
     </row>
-    <row r="623" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I623" s="18"/>
       <c r="J623" s="18"/>
     </row>
-    <row r="624" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I624" s="18"/>
       <c r="J624" s="18"/>
     </row>
-    <row r="625" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I625" s="18"/>
       <c r="J625" s="18"/>
     </row>
-    <row r="626" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I626" s="18"/>
       <c r="J626" s="18"/>
     </row>
-    <row r="627" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I627" s="18"/>
       <c r="J627" s="18"/>
     </row>
-    <row r="628" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I628" s="18"/>
       <c r="J628" s="18"/>
     </row>
-    <row r="629" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I629" s="18"/>
       <c r="J629" s="18"/>
     </row>
-    <row r="630" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I630" s="18"/>
       <c r="J630" s="18"/>
     </row>
-    <row r="631" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I631" s="18"/>
       <c r="J631" s="18"/>
     </row>
-    <row r="632" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I632" s="18"/>
       <c r="J632" s="18"/>
     </row>
-    <row r="633" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I633" s="18"/>
       <c r="J633" s="18"/>
     </row>
-    <row r="634" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I634" s="18"/>
       <c r="J634" s="18"/>
     </row>
-    <row r="635" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I635" s="18"/>
       <c r="J635" s="18"/>
     </row>
-    <row r="636" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I636" s="18"/>
       <c r="J636" s="18"/>
     </row>
-    <row r="637" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I637" s="18"/>
       <c r="J637" s="18"/>
     </row>
-    <row r="638" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I638" s="18"/>
       <c r="J638" s="18"/>
     </row>
-    <row r="639" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I639" s="18"/>
       <c r="J639" s="18"/>
     </row>
-    <row r="640" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I640" s="18"/>
       <c r="J640" s="18"/>
     </row>
-    <row r="641" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I641" s="18"/>
       <c r="J641" s="18"/>
     </row>
-    <row r="642" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I642" s="18"/>
       <c r="J642" s="18"/>
     </row>
-    <row r="643" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I643" s="18"/>
       <c r="J643" s="18"/>
     </row>
-    <row r="644" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I644" s="18"/>
       <c r="J644" s="18"/>
     </row>
-    <row r="645" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I645" s="18"/>
       <c r="J645" s="18"/>
     </row>
-    <row r="646" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I646" s="18"/>
       <c r="J646" s="18"/>
     </row>
-    <row r="647" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I647" s="18"/>
       <c r="J647" s="18"/>
     </row>
-    <row r="648" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I648" s="18"/>
       <c r="J648" s="18"/>
     </row>
-    <row r="649" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I649" s="18"/>
       <c r="J649" s="18"/>
     </row>
-    <row r="650" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I650" s="18"/>
       <c r="J650" s="18"/>
     </row>
-    <row r="651" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I651" s="18"/>
       <c r="J651" s="18"/>
     </row>
-    <row r="652" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I652" s="18"/>
       <c r="J652" s="18"/>
     </row>
-    <row r="653" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I653" s="18"/>
       <c r="J653" s="18"/>
     </row>
-    <row r="654" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I654" s="18"/>
       <c r="J654" s="18"/>
     </row>
-    <row r="655" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I655" s="18"/>
       <c r="J655" s="18"/>
     </row>
-    <row r="656" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I656" s="18"/>
       <c r="J656" s="18"/>
     </row>
-    <row r="657" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I657" s="18"/>
       <c r="J657" s="18"/>
     </row>
-    <row r="658" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I658" s="18"/>
       <c r="J658" s="18"/>
     </row>
-    <row r="659" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I659" s="18"/>
       <c r="J659" s="18"/>
     </row>
-    <row r="660" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I660" s="18"/>
       <c r="J660" s="18"/>
     </row>
-    <row r="661" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I661" s="18"/>
       <c r="J661" s="18"/>
     </row>
-    <row r="662" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I662" s="18"/>
       <c r="J662" s="18"/>
     </row>
-    <row r="663" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I663" s="18"/>
       <c r="J663" s="18"/>
     </row>
-    <row r="664" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I664" s="18"/>
       <c r="J664" s="18"/>
     </row>
-    <row r="665" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I665" s="18"/>
       <c r="J665" s="18"/>
     </row>
-    <row r="666" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I666" s="18"/>
       <c r="J666" s="18"/>
     </row>
-    <row r="667" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I667" s="18"/>
       <c r="J667" s="18"/>
     </row>
-    <row r="668" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I668" s="18"/>
       <c r="J668" s="18"/>
     </row>
-    <row r="669" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I669" s="18"/>
       <c r="J669" s="18"/>
     </row>
-    <row r="670" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I670" s="18"/>
       <c r="J670" s="18"/>
     </row>
-    <row r="671" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I671" s="18"/>
       <c r="J671" s="18"/>
     </row>
-    <row r="672" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I672" s="18"/>
       <c r="J672" s="18"/>
     </row>
-    <row r="673" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I673" s="18"/>
       <c r="J673" s="18"/>
     </row>
-    <row r="674" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I674" s="18"/>
       <c r="J674" s="18"/>
     </row>
-    <row r="675" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I675" s="18"/>
       <c r="J675" s="18"/>
     </row>
-    <row r="676" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I676" s="18"/>
       <c r="J676" s="18"/>
     </row>
-    <row r="677" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I677" s="18"/>
       <c r="J677" s="18"/>
     </row>
-    <row r="678" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I678" s="18"/>
       <c r="J678" s="18"/>
     </row>
-    <row r="679" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I679" s="18"/>
       <c r="J679" s="18"/>
     </row>
-    <row r="680" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I680" s="18"/>
       <c r="J680" s="18"/>
     </row>
-    <row r="681" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I681" s="18"/>
       <c r="J681" s="18"/>
     </row>
-    <row r="682" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I682" s="18"/>
       <c r="J682" s="18"/>
     </row>
-    <row r="683" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I683" s="18"/>
       <c r="J683" s="18"/>
     </row>
-    <row r="684" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I684" s="18"/>
       <c r="J684" s="18"/>
     </row>
-    <row r="685" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I685" s="18"/>
       <c r="J685" s="18"/>
     </row>
-    <row r="686" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I686" s="18"/>
       <c r="J686" s="18"/>
     </row>
-    <row r="687" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I687" s="18"/>
       <c r="J687" s="18"/>
     </row>
-    <row r="688" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I688" s="18"/>
       <c r="J688" s="18"/>
     </row>
-    <row r="689" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I689" s="18"/>
       <c r="J689" s="18"/>
     </row>
-    <row r="690" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I690" s="18"/>
       <c r="J690" s="18"/>
     </row>
-    <row r="691" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I691" s="18"/>
       <c r="J691" s="18"/>
     </row>
-    <row r="692" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I692" s="18"/>
       <c r="J692" s="18"/>
     </row>
-    <row r="693" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I693" s="18"/>
       <c r="J693" s="18"/>
     </row>
-    <row r="694" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I694" s="18"/>
       <c r="J694" s="18"/>
     </row>
-    <row r="695" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I695" s="18"/>
       <c r="J695" s="18"/>
     </row>
-    <row r="696" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I696" s="18"/>
       <c r="J696" s="18"/>
     </row>
-    <row r="697" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I697" s="18"/>
       <c r="J697" s="18"/>
     </row>
-    <row r="698" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I698" s="18"/>
       <c r="J698" s="18"/>
     </row>
-    <row r="699" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I699" s="18"/>
       <c r="J699" s="18"/>
     </row>
-    <row r="700" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I700" s="18"/>
       <c r="J700" s="18"/>
     </row>
-    <row r="701" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I701" s="18"/>
       <c r="J701" s="18"/>
     </row>
-    <row r="702" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I702" s="18"/>
       <c r="J702" s="18"/>
     </row>
-    <row r="703" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I703" s="18"/>
       <c r="J703" s="18"/>
     </row>
-    <row r="704" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I704" s="18"/>
       <c r="J704" s="18"/>
     </row>
-    <row r="705" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I705" s="18"/>
       <c r="J705" s="18"/>
     </row>
-    <row r="706" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I706" s="18"/>
       <c r="J706" s="18"/>
     </row>
-    <row r="707" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I707" s="18"/>
       <c r="J707" s="18"/>
     </row>
-    <row r="708" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I708" s="18"/>
       <c r="J708" s="18"/>
     </row>
-    <row r="709" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I709" s="18"/>
       <c r="J709" s="18"/>
     </row>
-    <row r="710" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I710" s="18"/>
       <c r="J710" s="18"/>
     </row>
-    <row r="711" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I711" s="18"/>
       <c r="J711" s="18"/>
     </row>
-    <row r="712" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I712" s="18"/>
       <c r="J712" s="18"/>
     </row>
-    <row r="713" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I713" s="18"/>
       <c r="J713" s="18"/>
     </row>
-    <row r="714" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I714" s="18"/>
       <c r="J714" s="18"/>
     </row>
-    <row r="715" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I715" s="18"/>
       <c r="J715" s="18"/>
     </row>
-    <row r="716" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I716" s="18"/>
       <c r="J716" s="18"/>
     </row>
-    <row r="717" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I717" s="18"/>
       <c r="J717" s="18"/>
     </row>
-    <row r="718" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I718" s="18"/>
       <c r="J718" s="18"/>
     </row>
-    <row r="719" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I719" s="18"/>
       <c r="J719" s="18"/>
     </row>
-    <row r="720" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I720" s="18"/>
       <c r="J720" s="18"/>
     </row>
-    <row r="721" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I721" s="18"/>
       <c r="J721" s="18"/>
     </row>
-    <row r="722" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I722" s="18"/>
       <c r="J722" s="18"/>
     </row>
-    <row r="723" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I723" s="18"/>
       <c r="J723" s="18"/>
     </row>
-    <row r="724" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I724" s="18"/>
       <c r="J724" s="18"/>
     </row>
-    <row r="725" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I725" s="18"/>
       <c r="J725" s="18"/>
     </row>
-    <row r="726" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I726" s="18"/>
       <c r="J726" s="18"/>
     </row>
-    <row r="727" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I727" s="18"/>
       <c r="J727" s="18"/>
     </row>
-    <row r="728" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I728" s="18"/>
       <c r="J728" s="18"/>
     </row>
-    <row r="729" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I729" s="18"/>
       <c r="J729" s="18"/>
     </row>
-    <row r="730" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I730" s="18"/>
       <c r="J730" s="18"/>
     </row>
-    <row r="731" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I731" s="18"/>
       <c r="J731" s="18"/>
     </row>
-    <row r="732" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I732" s="18"/>
       <c r="J732" s="18"/>
     </row>
-    <row r="733" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I733" s="18"/>
       <c r="J733" s="18"/>
     </row>
-    <row r="734" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I734" s="18"/>
       <c r="J734" s="18"/>
     </row>
-    <row r="735" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I735" s="18"/>
       <c r="J735" s="18"/>
     </row>
-    <row r="736" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I736" s="18"/>
       <c r="J736" s="18"/>
     </row>
-    <row r="737" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I737" s="18"/>
       <c r="J737" s="18"/>
     </row>
-    <row r="738" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I738" s="18"/>
       <c r="J738" s="18"/>
     </row>
-    <row r="739" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I739" s="18"/>
       <c r="J739" s="18"/>
     </row>
-    <row r="740" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I740" s="18"/>
       <c r="J740" s="18"/>
     </row>
-    <row r="741" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I741" s="18"/>
       <c r="J741" s="18"/>
     </row>
-    <row r="742" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I742" s="18"/>
       <c r="J742" s="18"/>
     </row>
-    <row r="743" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I743" s="18"/>
       <c r="J743" s="18"/>
     </row>
-    <row r="744" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I744" s="18"/>
       <c r="J744" s="18"/>
     </row>
-    <row r="745" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I745" s="18"/>
       <c r="J745" s="18"/>
     </row>
-    <row r="746" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I746" s="18"/>
       <c r="J746" s="18"/>
     </row>
-    <row r="747" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I747" s="18"/>
       <c r="J747" s="18"/>
     </row>
-    <row r="748" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I748" s="18"/>
       <c r="J748" s="18"/>
     </row>
-    <row r="749" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I749" s="18"/>
       <c r="J749" s="18"/>
     </row>
-    <row r="750" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I750" s="18"/>
       <c r="J750" s="18"/>
     </row>
-    <row r="751" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I751" s="18"/>
       <c r="J751" s="18"/>
     </row>
-    <row r="752" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I752" s="18"/>
       <c r="J752" s="18"/>
     </row>
-    <row r="753" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I753" s="18"/>
       <c r="J753" s="18"/>
     </row>
-    <row r="754" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I754" s="18"/>
       <c r="J754" s="18"/>
     </row>
-    <row r="755" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I755" s="18"/>
       <c r="J755" s="18"/>
     </row>
-    <row r="756" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I756" s="18"/>
       <c r="J756" s="18"/>
     </row>
-    <row r="757" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I757" s="18"/>
       <c r="J757" s="18"/>
     </row>
-    <row r="758" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I758" s="18"/>
       <c r="J758" s="18"/>
     </row>
-    <row r="759" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I759" s="18"/>
       <c r="J759" s="18"/>
     </row>
-    <row r="760" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I760" s="18"/>
       <c r="J760" s="18"/>
     </row>
-    <row r="761" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I761" s="18"/>
       <c r="J761" s="18"/>
     </row>
-    <row r="762" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I762" s="18"/>
       <c r="J762" s="18"/>
     </row>
-    <row r="763" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I763" s="18"/>
       <c r="J763" s="18"/>
     </row>
-    <row r="764" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I764" s="18"/>
       <c r="J764" s="18"/>
     </row>
-    <row r="765" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I765" s="18"/>
       <c r="J765" s="18"/>
     </row>
-    <row r="766" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I766" s="18"/>
       <c r="J766" s="18"/>
     </row>
-    <row r="767" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I767" s="18"/>
       <c r="J767" s="18"/>
     </row>
-    <row r="768" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I768" s="18"/>
       <c r="J768" s="18"/>
     </row>
-    <row r="769" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I769" s="18"/>
       <c r="J769" s="18"/>
     </row>
-    <row r="770" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I770" s="18"/>
       <c r="J770" s="18"/>
     </row>
-    <row r="771" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I771" s="18"/>
       <c r="J771" s="18"/>
     </row>
-    <row r="772" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I772" s="18"/>
       <c r="J772" s="18"/>
     </row>
-    <row r="773" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I773" s="18"/>
       <c r="J773" s="18"/>
     </row>
-    <row r="774" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I774" s="18"/>
       <c r="J774" s="18"/>
     </row>
-    <row r="775" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I775" s="18"/>
       <c r="J775" s="18"/>
     </row>
-    <row r="776" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I776" s="18"/>
       <c r="J776" s="18"/>
     </row>
-    <row r="777" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I777" s="18"/>
       <c r="J777" s="18"/>
     </row>
-    <row r="778" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I778" s="18"/>
       <c r="J778" s="18"/>
     </row>
-    <row r="779" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I779" s="18"/>
       <c r="J779" s="18"/>
     </row>
-    <row r="780" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I780" s="18"/>
       <c r="J780" s="18"/>
     </row>
-    <row r="781" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I781" s="18"/>
       <c r="J781" s="18"/>
     </row>
-    <row r="782" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I782" s="18"/>
       <c r="J782" s="18"/>
     </row>
-    <row r="783" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I783" s="18"/>
       <c r="J783" s="18"/>
     </row>
-    <row r="784" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I784" s="18"/>
       <c r="J784" s="18"/>
     </row>
-    <row r="785" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I785" s="18"/>
       <c r="J785" s="18"/>
     </row>
-    <row r="786" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I786" s="18"/>
       <c r="J786" s="18"/>
     </row>
-    <row r="787" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I787" s="18"/>
       <c r="J787" s="18"/>
     </row>
-    <row r="788" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I788" s="18"/>
       <c r="J788" s="18"/>
     </row>
-    <row r="789" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I789" s="18"/>
       <c r="J789" s="18"/>
     </row>
-    <row r="790" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I790" s="18"/>
       <c r="J790" s="18"/>
     </row>
-    <row r="791" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I791" s="18"/>
       <c r="J791" s="18"/>
     </row>
-    <row r="792" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="792" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I792" s="18"/>
       <c r="J792" s="18"/>
     </row>
-    <row r="793" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I793" s="18"/>
       <c r="J793" s="18"/>
     </row>
-    <row r="794" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="794" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I794" s="18"/>
       <c r="J794" s="18"/>
     </row>
-    <row r="795" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="795" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I795" s="18"/>
       <c r="J795" s="18"/>
     </row>
-    <row r="796" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I796" s="18"/>
       <c r="J796" s="18"/>
     </row>
-    <row r="797" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="797" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I797" s="18"/>
       <c r="J797" s="18"/>
     </row>
-    <row r="798" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="798" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I798" s="18"/>
       <c r="J798" s="18"/>
     </row>
-    <row r="799" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="799" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I799" s="18"/>
       <c r="J799" s="18"/>
     </row>
-    <row r="800" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="800" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I800" s="18"/>
       <c r="J800" s="18"/>
     </row>
-    <row r="801" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="801" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I801" s="18"/>
       <c r="J801" s="18"/>
     </row>
-    <row r="802" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="802" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I802" s="18"/>
       <c r="J802" s="18"/>
     </row>
-    <row r="803" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="803" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I803" s="18"/>
       <c r="J803" s="18"/>
     </row>
-    <row r="804" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I804" s="18"/>
       <c r="J804" s="18"/>
     </row>
-    <row r="805" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="805" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I805" s="18"/>
       <c r="J805" s="18"/>
     </row>
-    <row r="806" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I806" s="18"/>
       <c r="J806" s="18"/>
     </row>
-    <row r="807" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="807" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I807" s="18"/>
       <c r="J807" s="18"/>
     </row>
-    <row r="808" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="808" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I808" s="18"/>
       <c r="J808" s="18"/>
     </row>
-    <row r="809" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="809" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I809" s="18"/>
       <c r="J809" s="18"/>
     </row>
-    <row r="810" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="810" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I810" s="18"/>
       <c r="J810" s="18"/>
     </row>
-    <row r="811" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="811" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I811" s="18"/>
       <c r="J811" s="18"/>
     </row>
-    <row r="812" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="812" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I812" s="18"/>
       <c r="J812" s="18"/>
     </row>
-    <row r="813" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="813" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I813" s="18"/>
       <c r="J813" s="18"/>
     </row>
-    <row r="814" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="814" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I814" s="18"/>
       <c r="J814" s="18"/>
     </row>
-    <row r="815" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="815" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I815" s="18"/>
       <c r="J815" s="18"/>
     </row>
-    <row r="816" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="816" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I816" s="18"/>
       <c r="J816" s="18"/>
     </row>
-    <row r="817" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="817" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I817" s="18"/>
       <c r="J817" s="18"/>
     </row>
-    <row r="818" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="818" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I818" s="18"/>
       <c r="J818" s="18"/>
     </row>
-    <row r="819" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="819" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I819" s="18"/>
       <c r="J819" s="18"/>
     </row>
-    <row r="820" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="820" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I820" s="18"/>
       <c r="J820" s="18"/>
     </row>
-    <row r="821" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="821" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I821" s="18"/>
       <c r="J821" s="18"/>
     </row>
-    <row r="822" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I822" s="18"/>
       <c r="J822" s="18"/>
     </row>
-    <row r="823" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="823" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I823" s="18"/>
       <c r="J823" s="18"/>
     </row>
-    <row r="824" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="824" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I824" s="18"/>
       <c r="J824" s="18"/>
     </row>
-    <row r="825" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="825" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I825" s="18"/>
       <c r="J825" s="18"/>
     </row>
-    <row r="826" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="826" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I826" s="18"/>
       <c r="J826" s="18"/>
     </row>
-    <row r="827" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="827" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I827" s="18"/>
       <c r="J827" s="18"/>
     </row>
-    <row r="828" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="828" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I828" s="18"/>
       <c r="J828" s="18"/>
     </row>
-    <row r="829" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="829" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I829" s="18"/>
       <c r="J829" s="18"/>
     </row>
-    <row r="830" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="830" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I830" s="18"/>
       <c r="J830" s="18"/>
     </row>
-    <row r="831" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="831" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I831" s="18"/>
       <c r="J831" s="18"/>
     </row>
-    <row r="832" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I832" s="18"/>
       <c r="J832" s="18"/>
     </row>
-    <row r="833" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I833" s="18"/>
       <c r="J833" s="18"/>
     </row>
-    <row r="834" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I834" s="18"/>
       <c r="J834" s="18"/>
     </row>
-    <row r="835" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I835" s="18"/>
       <c r="J835" s="18"/>
     </row>
-    <row r="836" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I836" s="18"/>
       <c r="J836" s="18"/>
     </row>
-    <row r="837" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I837" s="18"/>
       <c r="J837" s="18"/>
     </row>
-    <row r="838" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I838" s="18"/>
       <c r="J838" s="18"/>
     </row>
-    <row r="839" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I839" s="18"/>
       <c r="J839" s="18"/>
     </row>
-    <row r="840" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I840" s="18"/>
       <c r="J840" s="18"/>
     </row>
-    <row r="841" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I841" s="18"/>
       <c r="J841" s="18"/>
     </row>
-    <row r="842" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I842" s="18"/>
       <c r="J842" s="18"/>
     </row>
-    <row r="843" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I843" s="18"/>
       <c r="J843" s="18"/>
     </row>
-    <row r="844" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I844" s="18"/>
       <c r="J844" s="18"/>
     </row>
-    <row r="845" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I845" s="18"/>
       <c r="J845" s="18"/>
     </row>
-    <row r="846" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I846" s="18"/>
       <c r="J846" s="18"/>
     </row>
-    <row r="847" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I847" s="18"/>
       <c r="J847" s="18"/>
     </row>
-    <row r="848" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I848" s="18"/>
       <c r="J848" s="18"/>
     </row>
-    <row r="849" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="849" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I849" s="18"/>
       <c r="J849" s="18"/>
     </row>
-    <row r="850" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="850" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I850" s="18"/>
       <c r="J850" s="18"/>
     </row>
-    <row r="851" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="851" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I851" s="18"/>
       <c r="J851" s="18"/>
     </row>
-    <row r="852" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="852" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I852" s="18"/>
       <c r="J852" s="18"/>
     </row>
-    <row r="853" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="853" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I853" s="18"/>
       <c r="J853" s="18"/>
     </row>
-    <row r="854" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="854" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I854" s="18"/>
       <c r="J854" s="18"/>
     </row>
-    <row r="855" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="855" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I855" s="18"/>
       <c r="J855" s="18"/>
     </row>
-    <row r="856" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="856" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I856" s="18"/>
       <c r="J856" s="18"/>
     </row>
-    <row r="857" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="857" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I857" s="18"/>
       <c r="J857" s="18"/>
     </row>
-    <row r="858" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="858" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I858" s="18"/>
       <c r="J858" s="18"/>
     </row>
-    <row r="859" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="859" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I859" s="18"/>
       <c r="J859" s="18"/>
     </row>
-    <row r="860" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="860" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I860" s="18"/>
       <c r="J860" s="18"/>
     </row>
-    <row r="861" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="861" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I861" s="18"/>
       <c r="J861" s="18"/>
     </row>
-    <row r="862" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="862" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I862" s="18"/>
       <c r="J862" s="18"/>
     </row>
-    <row r="863" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="863" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I863" s="18"/>
       <c r="J863" s="18"/>
     </row>
-    <row r="864" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="864" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I864" s="18"/>
       <c r="J864" s="18"/>
     </row>
-    <row r="865" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="865" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I865" s="18"/>
       <c r="J865" s="18"/>
     </row>
-    <row r="866" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="866" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I866" s="18"/>
       <c r="J866" s="18"/>
     </row>
-    <row r="867" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="867" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I867" s="18"/>
       <c r="J867" s="18"/>
     </row>
-    <row r="868" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="868" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I868" s="18"/>
       <c r="J868" s="18"/>
     </row>
-    <row r="869" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="869" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I869" s="18"/>
       <c r="J869" s="18"/>
     </row>
-    <row r="870" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="870" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I870" s="18"/>
       <c r="J870" s="18"/>
     </row>
-    <row r="871" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="871" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I871" s="18"/>
       <c r="J871" s="18"/>
     </row>
-    <row r="872" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="872" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I872" s="18"/>
       <c r="J872" s="18"/>
     </row>
-    <row r="873" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="873" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I873" s="18"/>
       <c r="J873" s="18"/>
     </row>
-    <row r="874" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="874" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I874" s="18"/>
       <c r="J874" s="18"/>
     </row>
-    <row r="875" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="875" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I875" s="18"/>
       <c r="J875" s="18"/>
     </row>
-    <row r="876" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="876" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I876" s="18"/>
       <c r="J876" s="18"/>
     </row>
-    <row r="877" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="877" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I877" s="18"/>
       <c r="J877" s="18"/>
     </row>
-    <row r="878" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="878" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I878" s="18"/>
       <c r="J878" s="18"/>
     </row>
-    <row r="879" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="879" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I879" s="18"/>
       <c r="J879" s="18"/>
     </row>
-    <row r="880" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="880" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I880" s="18"/>
       <c r="J880" s="18"/>
     </row>
-    <row r="881" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="881" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I881" s="18"/>
       <c r="J881" s="18"/>
     </row>
-    <row r="882" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="882" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I882" s="18"/>
       <c r="J882" s="18"/>
     </row>
-    <row r="883" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="883" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I883" s="18"/>
       <c r="J883" s="18"/>
     </row>
-    <row r="884" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="884" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I884" s="18"/>
       <c r="J884" s="18"/>
     </row>
-    <row r="885" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="885" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I885" s="18"/>
       <c r="J885" s="18"/>
     </row>
-    <row r="886" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="886" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I886" s="18"/>
       <c r="J886" s="18"/>
     </row>
-    <row r="887" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="887" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I887" s="18"/>
       <c r="J887" s="18"/>
     </row>
-    <row r="888" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="888" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I888" s="18"/>
       <c r="J888" s="18"/>
     </row>
-    <row r="889" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="889" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I889" s="18"/>
       <c r="J889" s="18"/>
     </row>
-    <row r="890" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="890" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I890" s="18"/>
       <c r="J890" s="18"/>
     </row>
-    <row r="891" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="891" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I891" s="18"/>
       <c r="J891" s="18"/>
     </row>
-    <row r="892" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="892" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I892" s="18"/>
       <c r="J892" s="18"/>
     </row>
-    <row r="893" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="893" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I893" s="18"/>
       <c r="J893" s="18"/>
     </row>
-    <row r="894" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="894" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I894" s="18"/>
       <c r="J894" s="18"/>
     </row>
-    <row r="895" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="895" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I895" s="18"/>
       <c r="J895" s="18"/>
     </row>
-    <row r="896" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="896" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I896" s="18"/>
       <c r="J896" s="18"/>
     </row>
-    <row r="897" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="897" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I897" s="18"/>
       <c r="J897" s="18"/>
     </row>
-    <row r="898" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="898" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I898" s="18"/>
       <c r="J898" s="18"/>
     </row>
-    <row r="899" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="899" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I899" s="18"/>
       <c r="J899" s="18"/>
     </row>
-    <row r="900" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="900" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I900" s="18"/>
       <c r="J900" s="18"/>
     </row>
-    <row r="901" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="901" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I901" s="18"/>
       <c r="J901" s="18"/>
     </row>
-    <row r="902" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="902" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I902" s="18"/>
       <c r="J902" s="18"/>
     </row>
-    <row r="903" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="903" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I903" s="18"/>
       <c r="J903" s="18"/>
     </row>
-    <row r="904" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="904" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I904" s="18"/>
       <c r="J904" s="18"/>
     </row>
-    <row r="905" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="905" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I905" s="18"/>
       <c r="J905" s="18"/>
     </row>
-    <row r="906" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="906" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I906" s="18"/>
       <c r="J906" s="18"/>
     </row>
-    <row r="907" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="907" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I907" s="18"/>
       <c r="J907" s="18"/>
     </row>
-    <row r="908" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="908" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I908" s="18"/>
       <c r="J908" s="18"/>
     </row>
-    <row r="909" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="909" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I909" s="18"/>
       <c r="J909" s="18"/>
     </row>
-    <row r="910" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="910" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I910" s="18"/>
       <c r="J910" s="18"/>
     </row>
-    <row r="911" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="911" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I911" s="18"/>
       <c r="J911" s="18"/>
     </row>
-    <row r="912" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="912" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I912" s="18"/>
       <c r="J912" s="18"/>
     </row>
-    <row r="913" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="913" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I913" s="18"/>
       <c r="J913" s="18"/>
     </row>
-    <row r="914" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="914" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I914" s="18"/>
       <c r="J914" s="18"/>
     </row>
-    <row r="915" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="915" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I915" s="18"/>
       <c r="J915" s="18"/>
     </row>
-    <row r="916" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="916" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I916" s="18"/>
       <c r="J916" s="18"/>
     </row>
-    <row r="917" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="917" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I917" s="18"/>
       <c r="J917" s="18"/>
     </row>
-    <row r="918" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="918" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I918" s="18"/>
       <c r="J918" s="18"/>
     </row>
-    <row r="919" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="919" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I919" s="18"/>
       <c r="J919" s="18"/>
     </row>
-    <row r="920" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="920" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I920" s="18"/>
       <c r="J920" s="18"/>
     </row>
-    <row r="921" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="921" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I921" s="18"/>
       <c r="J921" s="18"/>
     </row>
-    <row r="922" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="922" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I922" s="18"/>
       <c r="J922" s="18"/>
     </row>
-    <row r="923" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="923" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I923" s="18"/>
       <c r="J923" s="18"/>
     </row>
-    <row r="924" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="924" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I924" s="18"/>
       <c r="J924" s="18"/>
     </row>
-    <row r="925" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="925" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I925" s="18"/>
       <c r="J925" s="18"/>
     </row>
-    <row r="926" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="926" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I926" s="18"/>
       <c r="J926" s="18"/>
     </row>
-    <row r="927" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="927" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I927" s="18"/>
       <c r="J927" s="18"/>
     </row>
-    <row r="928" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="928" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I928" s="18"/>
       <c r="J928" s="18"/>
     </row>
-    <row r="929" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="929" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I929" s="18"/>
       <c r="J929" s="18"/>
     </row>
-    <row r="930" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="930" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I930" s="18"/>
       <c r="J930" s="18"/>
     </row>
-    <row r="931" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="931" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I931" s="18"/>
       <c r="J931" s="18"/>
     </row>
-    <row r="932" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="932" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I932" s="18"/>
       <c r="J932" s="18"/>
     </row>
-    <row r="933" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="933" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I933" s="18"/>
       <c r="J933" s="18"/>
     </row>
-    <row r="934" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="934" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I934" s="18"/>
       <c r="J934" s="18"/>
     </row>
-    <row r="935" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="935" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I935" s="18"/>
       <c r="J935" s="18"/>
     </row>
-    <row r="936" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="936" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I936" s="18"/>
       <c r="J936" s="18"/>
     </row>
-    <row r="937" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="937" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I937" s="18"/>
       <c r="J937" s="18"/>
     </row>
-    <row r="938" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="938" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I938" s="18"/>
       <c r="J938" s="18"/>
     </row>
-    <row r="939" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="939" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I939" s="18"/>
       <c r="J939" s="18"/>
     </row>
-    <row r="940" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="940" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I940" s="18"/>
       <c r="J940" s="18"/>
     </row>
-    <row r="941" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="941" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I941" s="18"/>
       <c r="J941" s="18"/>
     </row>
-    <row r="942" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="942" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I942" s="18"/>
       <c r="J942" s="18"/>
     </row>
-    <row r="943" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="943" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I943" s="18"/>
       <c r="J943" s="18"/>
     </row>
-    <row r="944" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="944" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I944" s="18"/>
       <c r="J944" s="18"/>
     </row>
-    <row r="945" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="945" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I945" s="18"/>
       <c r="J945" s="18"/>
     </row>
-    <row r="946" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="946" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I946" s="18"/>
       <c r="J946" s="18"/>
     </row>
-    <row r="947" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="947" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I947" s="18"/>
       <c r="J947" s="18"/>
     </row>
-    <row r="948" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="948" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I948" s="18"/>
       <c r="J948" s="18"/>
     </row>
-    <row r="949" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="949" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I949" s="18"/>
       <c r="J949" s="18"/>
     </row>
-    <row r="950" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="950" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I950" s="18"/>
       <c r="J950" s="18"/>
     </row>
-    <row r="951" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="951" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I951" s="18"/>
       <c r="J951" s="18"/>
     </row>
-    <row r="952" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="952" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I952" s="18"/>
       <c r="J952" s="18"/>
     </row>
-    <row r="953" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="953" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I953" s="18"/>
       <c r="J953" s="18"/>
     </row>
-    <row r="954" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="954" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I954" s="18"/>
       <c r="J954" s="18"/>
     </row>
-    <row r="955" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="955" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I955" s="18"/>
       <c r="J955" s="18"/>
     </row>
-    <row r="956" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="956" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I956" s="18"/>
       <c r="J956" s="18"/>
     </row>
-    <row r="957" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="957" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I957" s="18"/>
       <c r="J957" s="18"/>
     </row>
-    <row r="958" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="958" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I958" s="18"/>
       <c r="J958" s="18"/>
     </row>
-    <row r="959" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="959" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I959" s="18"/>
       <c r="J959" s="18"/>
     </row>
-    <row r="960" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="960" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I960" s="18"/>
       <c r="J960" s="18"/>
     </row>
-    <row r="961" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="961" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I961" s="18"/>
       <c r="J961" s="18"/>
     </row>
-    <row r="962" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="962" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I962" s="18"/>
       <c r="J962" s="18"/>
     </row>
-    <row r="963" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="963" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I963" s="18"/>
       <c r="J963" s="18"/>
     </row>
-    <row r="964" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="964" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I964" s="18"/>
       <c r="J964" s="18"/>
     </row>
-    <row r="965" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="965" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I965" s="18"/>
       <c r="J965" s="18"/>
     </row>
-    <row r="966" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="966" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I966" s="18"/>
       <c r="J966" s="18"/>
     </row>
-    <row r="967" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="967" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I967" s="18"/>
       <c r="J967" s="18"/>
     </row>
-    <row r="968" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="968" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I968" s="18"/>
       <c r="J968" s="18"/>
     </row>
-    <row r="969" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="969" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I969" s="18"/>
       <c r="J969" s="18"/>
     </row>
-    <row r="970" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="970" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I970" s="18"/>
       <c r="J970" s="18"/>
     </row>
-    <row r="971" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="971" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I971" s="18"/>
       <c r="J971" s="18"/>
     </row>
-    <row r="972" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="972" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I972" s="18"/>
       <c r="J972" s="18"/>
     </row>
-    <row r="973" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="973" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I973" s="18"/>
       <c r="J973" s="18"/>
     </row>
-    <row r="974" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="974" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I974" s="18"/>
       <c r="J974" s="18"/>
     </row>
-    <row r="975" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="975" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I975" s="18"/>
       <c r="J975" s="18"/>
     </row>
-    <row r="976" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="976" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I976" s="18"/>
       <c r="J976" s="18"/>
     </row>
-    <row r="977" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="977" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I977" s="18"/>
       <c r="J977" s="18"/>
     </row>
-    <row r="978" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="978" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I978" s="18"/>
       <c r="J978" s="18"/>
     </row>
-    <row r="979" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="979" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I979" s="18"/>
       <c r="J979" s="18"/>
     </row>
-    <row r="980" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="980" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I980" s="18"/>
       <c r="J980" s="18"/>
     </row>
-    <row r="981" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="981" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I981" s="18"/>
       <c r="J981" s="18"/>
     </row>
-    <row r="982" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="982" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I982" s="18"/>
       <c r="J982" s="18"/>
     </row>
-    <row r="983" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="983" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I983" s="18"/>
       <c r="J983" s="18"/>
     </row>
-    <row r="984" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="984" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I984" s="18"/>
       <c r="J984" s="18"/>
     </row>
-    <row r="985" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="985" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I985" s="18"/>
       <c r="J985" s="18"/>
     </row>
-    <row r="986" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="986" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I986" s="18"/>
       <c r="J986" s="18"/>
     </row>
-    <row r="987" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="987" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I987" s="18"/>
       <c r="J987" s="18"/>
     </row>
-    <row r="988" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="988" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I988" s="18"/>
       <c r="J988" s="18"/>
     </row>
-    <row r="989" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="989" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I989" s="18"/>
       <c r="J989" s="18"/>
     </row>
-    <row r="990" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="990" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I990" s="18"/>
       <c r="J990" s="18"/>
     </row>
-    <row r="991" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="991" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I991" s="18"/>
       <c r="J991" s="18"/>
     </row>
-    <row r="992" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="992" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I992" s="18"/>
       <c r="J992" s="18"/>
     </row>
-    <row r="993" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="993" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I993" s="18"/>
       <c r="J993" s="18"/>
     </row>
-    <row r="994" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="994" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I994" s="18"/>
       <c r="J994" s="18"/>
     </row>
-    <row r="995" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="995" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I995" s="18"/>
       <c r="J995" s="18"/>
     </row>
-    <row r="996" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="996" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I996" s="18"/>
       <c r="J996" s="18"/>
     </row>
-    <row r="997" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="997" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I997" s="18"/>
       <c r="J997" s="18"/>
     </row>
-    <row r="998" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="998" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I998" s="18"/>
       <c r="J998" s="18"/>
     </row>
-    <row r="999" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="999" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I999" s="18"/>
       <c r="J999" s="18"/>
     </row>
-    <row r="1000" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1000" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I1000" s="18"/>
       <c r="J1000" s="18"/>
     </row>
-    <row r="1001" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1001" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I1001" s="18"/>
       <c r="J1001" s="18"/>
     </row>
-    <row r="1002" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1002" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I1002" s="18"/>
       <c r="J1002" s="18"/>
     </row>
-    <row r="1003" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1003" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I1003" s="18"/>
       <c r="J1003" s="18"/>
     </row>
